--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_20_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2020182.855958859</v>
+        <v>2018573.5747867</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8000239.369791895</v>
+        <v>8000239.369791889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>149.2791301707604</v>
+        <v>211.9371129782807</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>264.130117099309</v>
+        <v>264.1301170993091</v>
       </c>
       <c r="G11" t="n">
-        <v>269.7464768811126</v>
+        <v>269.7464768811127</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>162.0934885437435</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.233700684801676</v>
       </c>
       <c r="T11" t="n">
-        <v>68.04769262841228</v>
+        <v>68.04769262841242</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>185.0063298277325</v>
+        <v>185.0063298277326</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9851720360666</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4920100136512</v>
+        <v>243.4920100136513</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.78725500746492</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>4.699136922236335</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>35.9157088029315</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.11048533239314</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>143.7533427911297</v>
+        <v>1.007414148727399</v>
       </c>
       <c r="T12" t="n">
-        <v>51.35799433355761</v>
+        <v>51.35799433355775</v>
       </c>
       <c r="U12" t="n">
-        <v>83.09652842683907</v>
+        <v>83.09652842683921</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>90.05465850702299</v>
       </c>
       <c r="W12" t="n">
-        <v>108.9490545185172</v>
+        <v>108.9490545185173</v>
       </c>
       <c r="X12" t="n">
-        <v>63.02705656107506</v>
+        <v>63.0270565610752</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.08605153953488</v>
+        <v>37.08605153953502</v>
       </c>
       <c r="C13" t="n">
-        <v>24.50089245622542</v>
+        <v>24.50089245622556</v>
       </c>
       <c r="D13" t="n">
-        <v>5.869544375809937</v>
+        <v>5.869544375810079</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>3.688034004166894</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>2.675119380528969</v>
       </c>
       <c r="G13" t="n">
-        <v>99.58001748854676</v>
+        <v>23.98443253374987</v>
       </c>
       <c r="H13" t="n">
-        <v>8.273202207802051</v>
+        <v>8.273202207802193</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>59.30153252655381</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T13" t="n">
-        <v>79.81338309784176</v>
+        <v>155.4089680526375</v>
       </c>
       <c r="U13" t="n">
-        <v>143.5043397223263</v>
+        <v>143.5043397223264</v>
       </c>
       <c r="V13" t="n">
-        <v>109.3917146814256</v>
+        <v>109.3917146814257</v>
       </c>
       <c r="W13" t="n">
-        <v>143.7770696941886</v>
+        <v>143.7770696941887</v>
       </c>
       <c r="X13" t="n">
-        <v>82.96372674663473</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.83872470969237</v>
+        <v>75.83872470969251</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>74.17696237983333</v>
       </c>
       <c r="C14" t="n">
-        <v>26.47126238606193</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>239.1844414298594</v>
+        <v>239.1844414298595</v>
       </c>
       <c r="F14" t="n">
-        <v>264.130117099309</v>
+        <v>264.1301170993091</v>
       </c>
       <c r="G14" t="n">
-        <v>269.7464768811126</v>
+        <v>269.7464768811127</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>167.9475609641863</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.233700684801533</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>68.04769262841228</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>108.3748977061045</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>185.0063298277325</v>
+        <v>185.0063298277326</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>206.4950400750107</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.4920100136512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.00480891788326</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>29.96257034591332</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>4.699136922236448</v>
       </c>
       <c r="E15" t="n">
-        <v>14.89915181299853</v>
+        <v>14.89915181299864</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>2.323283750981574</v>
       </c>
       <c r="G15" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>14.1104853323934</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.799003079515174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.007414148727257</v>
+        <v>1.007414148727371</v>
       </c>
       <c r="T15" t="n">
-        <v>194.10392297596</v>
+        <v>51.35799433355772</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8424570692415</v>
+        <v>83.09652842683919</v>
       </c>
       <c r="V15" t="n">
-        <v>90.05465850702285</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>63.02705656107506</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.93676713490194</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.08605153953488</v>
+        <v>37.08605153953499</v>
       </c>
       <c r="C16" t="n">
-        <v>24.50089245622542</v>
+        <v>24.50089245622553</v>
       </c>
       <c r="D16" t="n">
-        <v>5.869544375809937</v>
+        <v>5.869544375810051</v>
       </c>
       <c r="E16" t="n">
-        <v>3.688034004166752</v>
+        <v>3.688034004166866</v>
       </c>
       <c r="F16" t="n">
-        <v>2.675119380528827</v>
+        <v>2.67511938052894</v>
       </c>
       <c r="G16" t="n">
-        <v>23.98443253374973</v>
+        <v>23.98443253374985</v>
       </c>
       <c r="H16" t="n">
-        <v>8.273202207802051</v>
+        <v>8.273202207802164</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>59.30153252655381</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T16" t="n">
-        <v>79.81338309784176</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U16" t="n">
-        <v>143.5043397223263</v>
+        <v>219.0999246771224</v>
       </c>
       <c r="V16" t="n">
-        <v>184.9872996362227</v>
+        <v>109.3917146814257</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>143.7770696941887</v>
       </c>
       <c r="X16" t="n">
-        <v>82.96372674663473</v>
+        <v>82.96372674663485</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>75.83872470969249</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>161.1459090108605</v>
+        <v>161.1459090108606</v>
       </c>
       <c r="C17" t="n">
-        <v>143.6849591183875</v>
+        <v>143.6849591183876</v>
       </c>
       <c r="D17" t="n">
-        <v>133.0951089680629</v>
+        <v>133.095108968063</v>
       </c>
       <c r="E17" t="n">
         <v>160.3424374196418</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>185.2881130890915</v>
       </c>
       <c r="G17" t="n">
-        <v>190.904472870895</v>
+        <v>190.9044728708951</v>
       </c>
       <c r="H17" t="n">
-        <v>89.10555695396853</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>29.53289369588695</v>
       </c>
       <c r="V17" t="n">
-        <v>106.1643258175149</v>
+        <v>106.164325817515</v>
       </c>
       <c r="W17" t="n">
-        <v>127.653036064793</v>
+        <v>127.6530360647931</v>
       </c>
       <c r="X17" t="n">
-        <v>129.9411164294874</v>
+        <v>148.1431680258491</v>
       </c>
       <c r="Y17" t="n">
-        <v>164.6500060034336</v>
+        <v>20.73250457606019</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.799003079515174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8424570692415</v>
+        <v>4.254524416621555</v>
       </c>
       <c r="V18" t="n">
-        <v>11.21265449680524</v>
+        <v>11.21265449680533</v>
       </c>
       <c r="W18" t="n">
-        <v>98.99098086571331</v>
+        <v>190.363027711229</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>49.96740813308076</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>19.59978886781019</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9713790876241513</v>
+        <v>0.9713790876242365</v>
       </c>
       <c r="U19" t="n">
-        <v>64.66233571210869</v>
+        <v>64.66233571210877</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>64.93506568397098</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>161.1459090108605</v>
+        <v>161.1459090108606</v>
       </c>
       <c r="C20" t="n">
-        <v>143.6849591183875</v>
+        <v>143.6849591183876</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>116.8306436054828</v>
       </c>
       <c r="E20" t="n">
         <v>160.3424374196418</v>
       </c>
       <c r="F20" t="n">
-        <v>185.2881130890914</v>
+        <v>185.2881130890915</v>
       </c>
       <c r="G20" t="n">
-        <v>190.904472870895</v>
+        <v>190.9044728708951</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29.53289369588687</v>
+        <v>29.53289369588695</v>
       </c>
       <c r="V20" t="n">
-        <v>106.1643258175149</v>
+        <v>106.164325817515</v>
       </c>
       <c r="W20" t="n">
-        <v>127.653036064793</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>148.143168025849</v>
+        <v>148.1431680258491</v>
       </c>
       <c r="Y20" t="n">
-        <v>153.8276135441253</v>
+        <v>164.6500060034336</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>31.52845446609123</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8424570692415</v>
+        <v>24.04892916309579</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.45300328635791</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9713790876241513</v>
+        <v>153.0695288160025</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2502683647287</v>
+        <v>64.66233571210877</v>
       </c>
       <c r="V22" t="n">
-        <v>30.54971067120798</v>
+        <v>30.54971067120806</v>
       </c>
       <c r="W22" t="n">
-        <v>64.93506568397098</v>
+        <v>64.93506568397106</v>
       </c>
       <c r="X22" t="n">
-        <v>4.121722736417126</v>
+        <v>4.121722736417212</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>161.1459090108605</v>
+        <v>161.1459090108606</v>
       </c>
       <c r="C23" t="n">
-        <v>143.6849591183875</v>
+        <v>143.6849591183876</v>
       </c>
       <c r="D23" t="n">
-        <v>133.0951089680629</v>
+        <v>133.095108968063</v>
       </c>
       <c r="E23" t="n">
         <v>160.3424374196418</v>
       </c>
       <c r="F23" t="n">
-        <v>185.2881130890914</v>
+        <v>185.2881130890915</v>
       </c>
       <c r="G23" t="n">
-        <v>190.904472870895</v>
+        <v>190.9044728708951</v>
       </c>
       <c r="H23" t="n">
-        <v>89.10555695396855</v>
+        <v>89.10555695396863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>29.53289369588687</v>
+        <v>29.53289369588695</v>
       </c>
       <c r="V23" t="n">
-        <v>106.1643258175149</v>
+        <v>106.164325817515</v>
       </c>
       <c r="W23" t="n">
-        <v>127.653036064793</v>
+        <v>127.6530360647931</v>
       </c>
       <c r="X23" t="n">
-        <v>148.143168025849</v>
+        <v>148.1431680258491</v>
       </c>
       <c r="Y23" t="n">
         <v>164.6500060034336</v>
@@ -2400,22 +2400,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>45.33299185963188</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>37.62587671097609</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8424570692415</v>
+        <v>4.254524416621555</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>182.9037574284575</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9713790876241513</v>
+        <v>24.41521690656496</v>
       </c>
       <c r="U25" t="n">
         <v>286.2502683647287</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>30.54971067120806</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>64.93506568397106</v>
       </c>
       <c r="X25" t="n">
-        <v>40.8234851385295</v>
+        <v>4.121722736417212</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.891837653263</v>
+        <v>303.8918376532629</v>
       </c>
       <c r="C26" t="n">
-        <v>286.43088776079</v>
+        <v>286.4308877607899</v>
       </c>
       <c r="D26" t="n">
-        <v>275.8410376104654</v>
+        <v>275.8410376104653</v>
       </c>
       <c r="E26" t="n">
-        <v>303.0883660620442</v>
+        <v>303.0883660620441</v>
       </c>
       <c r="F26" t="n">
-        <v>328.0340417314939</v>
+        <v>328.0340417314938</v>
       </c>
       <c r="G26" t="n">
         <v>333.6504015132974</v>
       </c>
       <c r="H26" t="n">
-        <v>231.851485596371</v>
+        <v>231.8514855963709</v>
       </c>
       <c r="I26" t="n">
-        <v>23.2885614532572</v>
+        <v>23.28856145325716</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.13762531698634</v>
+        <v>66.1376253169863</v>
       </c>
       <c r="T26" t="n">
         <v>131.9516172605971</v>
       </c>
       <c r="U26" t="n">
-        <v>172.2788223382893</v>
+        <v>172.2788223382892</v>
       </c>
       <c r="V26" t="n">
         <v>248.9102544599173</v>
@@ -2618,7 +2618,7 @@
         <v>270.3989647071954</v>
       </c>
       <c r="X26" t="n">
-        <v>290.8890966682515</v>
+        <v>290.8890966682514</v>
       </c>
       <c r="Y26" t="n">
         <v>307.395934645836</v>
@@ -2652,7 +2652,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I27" t="n">
-        <v>37.62587671097609</v>
+        <v>37.6258767109761</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.799003079515174</v>
+        <v>6.799003079515188</v>
       </c>
       <c r="S27" t="n">
         <v>143.7533427911297</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.9899761717197</v>
+        <v>100.9899761717196</v>
       </c>
       <c r="C28" t="n">
-        <v>88.40481708841024</v>
+        <v>88.40481708841018</v>
       </c>
       <c r="D28" t="n">
-        <v>69.77346900799476</v>
+        <v>69.77346900799471</v>
       </c>
       <c r="E28" t="n">
-        <v>67.59195863635158</v>
+        <v>67.59195863635152</v>
       </c>
       <c r="F28" t="n">
-        <v>66.57904401271365</v>
+        <v>66.5790440127136</v>
       </c>
       <c r="G28" t="n">
-        <v>87.88835716593456</v>
+        <v>87.88835716593449</v>
       </c>
       <c r="H28" t="n">
-        <v>72.17712683998687</v>
+        <v>72.17712683998683</v>
       </c>
       <c r="I28" t="n">
-        <v>38.69824412549292</v>
+        <v>38.69824412549287</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76940982432941</v>
+        <v>41.76940982432936</v>
       </c>
       <c r="S28" t="n">
-        <v>123.2054571587387</v>
+        <v>123.2054571587386</v>
       </c>
       <c r="T28" t="n">
-        <v>143.7173077300266</v>
+        <v>143.7173077300265</v>
       </c>
       <c r="U28" t="n">
         <v>207.4082643545111</v>
@@ -2776,7 +2776,7 @@
         <v>207.6809943263734</v>
       </c>
       <c r="X28" t="n">
-        <v>146.8676513788196</v>
+        <v>146.8676513788195</v>
       </c>
       <c r="Y28" t="n">
         <v>139.7426493418772</v>
@@ -2792,7 +2792,7 @@
         <v>303.891837653263</v>
       </c>
       <c r="C29" t="n">
-        <v>286.4308877607899</v>
+        <v>286.43088776079</v>
       </c>
       <c r="D29" t="n">
         <v>275.8410376104654</v>
@@ -2810,7 +2810,7 @@
         <v>231.851485596371</v>
       </c>
       <c r="I29" t="n">
-        <v>23.28856145325719</v>
+        <v>23.2885614532572</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>100.9899761717197</v>
       </c>
       <c r="C31" t="n">
-        <v>88.40481708841023</v>
+        <v>88.40481708841024</v>
       </c>
       <c r="D31" t="n">
-        <v>69.77346900799475</v>
+        <v>69.77346900799476</v>
       </c>
       <c r="E31" t="n">
-        <v>67.59195863635156</v>
+        <v>67.59195863635158</v>
       </c>
       <c r="F31" t="n">
-        <v>66.57904401271364</v>
+        <v>66.57904401271365</v>
       </c>
       <c r="G31" t="n">
-        <v>87.88835716593454</v>
+        <v>87.88835716593455</v>
       </c>
       <c r="H31" t="n">
         <v>72.17712683998687</v>
       </c>
       <c r="I31" t="n">
-        <v>38.69824412549291</v>
+        <v>38.69824412549292</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76940982432939</v>
+        <v>41.76940982432941</v>
       </c>
       <c r="S31" t="n">
-        <v>123.2054571587386</v>
+        <v>123.2054571587387</v>
       </c>
       <c r="T31" t="n">
         <v>143.7173077300266</v>
@@ -3013,7 +3013,7 @@
         <v>207.6809943263734</v>
       </c>
       <c r="X31" t="n">
-        <v>146.8676513788195</v>
+        <v>146.8676513788196</v>
       </c>
       <c r="Y31" t="n">
         <v>139.7426493418772</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.8918376532629</v>
+        <v>303.891837653263</v>
       </c>
       <c r="C32" t="n">
-        <v>286.4308877607899</v>
+        <v>286.43088776079</v>
       </c>
       <c r="D32" t="n">
-        <v>275.8410376104653</v>
+        <v>275.8410376104654</v>
       </c>
       <c r="E32" t="n">
-        <v>303.0883660620441</v>
+        <v>303.0883660620442</v>
       </c>
       <c r="F32" t="n">
-        <v>328.0340417314938</v>
+        <v>328.0340417314939</v>
       </c>
       <c r="G32" t="n">
         <v>333.6504015132974</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8514855963709</v>
+        <v>231.851485596371</v>
       </c>
       <c r="I32" t="n">
-        <v>23.28856145325715</v>
+        <v>23.2885614532572</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.1376253169863</v>
+        <v>66.13762531698636</v>
       </c>
       <c r="T32" t="n">
         <v>131.9516172605971</v>
       </c>
       <c r="U32" t="n">
-        <v>172.2788223382892</v>
+        <v>172.2788223382893</v>
       </c>
       <c r="V32" t="n">
         <v>248.9102544599173</v>
@@ -3092,7 +3092,7 @@
         <v>270.3989647071954</v>
       </c>
       <c r="X32" t="n">
-        <v>290.8890966682514</v>
+        <v>290.8890966682515</v>
       </c>
       <c r="Y32" t="n">
         <v>307.395934645836</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.9899761717196</v>
+        <v>100.9899761717197</v>
       </c>
       <c r="C34" t="n">
-        <v>88.40481708841018</v>
+        <v>88.40481708841024</v>
       </c>
       <c r="D34" t="n">
-        <v>69.77346900799471</v>
+        <v>69.77346900799476</v>
       </c>
       <c r="E34" t="n">
-        <v>67.59195863635152</v>
+        <v>67.59195863635158</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5790440127136</v>
+        <v>66.57904401271365</v>
       </c>
       <c r="G34" t="n">
-        <v>87.88835716593451</v>
+        <v>87.88835716593456</v>
       </c>
       <c r="H34" t="n">
-        <v>72.17712683998681</v>
+        <v>72.17712683998687</v>
       </c>
       <c r="I34" t="n">
-        <v>38.69824412549286</v>
+        <v>38.69824412549292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76940982432935</v>
+        <v>41.76940982432941</v>
       </c>
       <c r="S34" t="n">
-        <v>123.2054571587386</v>
+        <v>123.2054571587387</v>
       </c>
       <c r="T34" t="n">
-        <v>143.7173077300265</v>
+        <v>143.7173077300266</v>
       </c>
       <c r="U34" t="n">
         <v>207.4082643545111</v>
@@ -3250,7 +3250,7 @@
         <v>207.6809943263734</v>
       </c>
       <c r="X34" t="n">
-        <v>146.8676513788195</v>
+        <v>146.8676513788196</v>
       </c>
       <c r="Y34" t="n">
         <v>139.7426493418772</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.5640882773552</v>
+        <v>202.5640882773554</v>
       </c>
       <c r="C35" t="n">
-        <v>185.1031383848822</v>
+        <v>185.1031383848823</v>
       </c>
       <c r="D35" t="n">
-        <v>174.5132882345576</v>
+        <v>174.5132882345577</v>
       </c>
       <c r="E35" t="n">
-        <v>201.7606166861364</v>
+        <v>201.7606166861366</v>
       </c>
       <c r="F35" t="n">
-        <v>226.7062923555861</v>
+        <v>226.7062923555862</v>
       </c>
       <c r="G35" t="n">
-        <v>232.3226521373897</v>
+        <v>232.3226521373898</v>
       </c>
       <c r="H35" t="n">
-        <v>130.5237362204632</v>
+        <v>130.5237362204633</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>30.62386788468933</v>
+        <v>30.62386788468947</v>
       </c>
       <c r="U35" t="n">
-        <v>70.95107296238153</v>
+        <v>70.95107296238166</v>
       </c>
       <c r="V35" t="n">
-        <v>147.5825050840095</v>
+        <v>147.5825050840097</v>
       </c>
       <c r="W35" t="n">
-        <v>169.0712153312876</v>
+        <v>169.0712153312878</v>
       </c>
       <c r="X35" t="n">
-        <v>189.5613472923437</v>
+        <v>189.5613472923438</v>
       </c>
       <c r="Y35" t="n">
-        <v>206.0681852699282</v>
+        <v>206.0681852699284</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.799003079515174</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.10392297596</v>
+        <v>120.3173997241729</v>
       </c>
       <c r="U36" t="n">
-        <v>148.9486535114469</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>202.0474611689562</v>
       </c>
       <c r="T37" t="n">
-        <v>42.38955835411881</v>
+        <v>78.1628424934147</v>
       </c>
       <c r="U37" t="n">
-        <v>106.0805149786033</v>
+        <v>106.0805149786035</v>
       </c>
       <c r="V37" t="n">
-        <v>153.4181000982333</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.53990200291179</v>
+        <v>45.53990200291193</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.41489996596943</v>
+        <v>38.41489996596957</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.5640882773552</v>
+        <v>202.5640882773553</v>
       </c>
       <c r="C38" t="n">
-        <v>185.1031383848822</v>
+        <v>185.1031383848823</v>
       </c>
       <c r="D38" t="n">
-        <v>174.5132882345576</v>
+        <v>174.5132882345577</v>
       </c>
       <c r="E38" t="n">
-        <v>201.7606166861364</v>
+        <v>201.7606166861365</v>
       </c>
       <c r="F38" t="n">
-        <v>226.7062923555861</v>
+        <v>226.7062923555862</v>
       </c>
       <c r="G38" t="n">
-        <v>232.3226521373897</v>
+        <v>232.3226521373898</v>
       </c>
       <c r="H38" t="n">
-        <v>130.5237362204632</v>
+        <v>130.5237362204633</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>30.62386788468933</v>
+        <v>30.62386788468941</v>
       </c>
       <c r="U38" t="n">
-        <v>70.95107296238153</v>
+        <v>70.95107296238162</v>
       </c>
       <c r="V38" t="n">
-        <v>147.5825050840095</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W38" t="n">
-        <v>169.0712153312876</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X38" t="n">
-        <v>189.5613472923437</v>
+        <v>189.5613472923438</v>
       </c>
       <c r="Y38" t="n">
-        <v>206.0681852699282</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3591,7 +3591,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>135.8398569848641</v>
@@ -3600,7 +3600,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I39" t="n">
-        <v>37.62587671097609</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>6.799003079515174</v>
       </c>
       <c r="S39" t="n">
-        <v>95.67774048692691</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.10392297596</v>
+        <v>15.80514413061303</v>
       </c>
       <c r="U39" t="n">
         <v>225.8424570692415</v>
@@ -3658,31 +3658,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.233474627595712</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>112.1799548038723</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>21.87770778283086</v>
+        <v>65.0788915450035</v>
       </c>
       <c r="T40" t="n">
-        <v>42.38955835411881</v>
+        <v>42.3895583541189</v>
       </c>
       <c r="U40" t="n">
-        <v>106.0805149786033</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V40" t="n">
-        <v>71.96788993770264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>106.3532449504656</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.53990200291179</v>
+        <v>45.53990200291187</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.41489996596943</v>
+        <v>38.41489996596951</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.5640882773552</v>
+        <v>202.5640882773553</v>
       </c>
       <c r="C41" t="n">
-        <v>185.1031383848822</v>
+        <v>185.1031383848823</v>
       </c>
       <c r="D41" t="n">
-        <v>174.5132882345576</v>
+        <v>174.5132882345577</v>
       </c>
       <c r="E41" t="n">
-        <v>201.7606166861364</v>
+        <v>201.7606166861365</v>
       </c>
       <c r="F41" t="n">
-        <v>226.7062923555861</v>
+        <v>226.7062923555862</v>
       </c>
       <c r="G41" t="n">
-        <v>232.3226521373897</v>
+        <v>232.3226521373898</v>
       </c>
       <c r="H41" t="n">
-        <v>130.5237362204632</v>
+        <v>130.5237362204633</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>30.62386788468933</v>
+        <v>30.62386788468941</v>
       </c>
       <c r="U41" t="n">
-        <v>70.95107296238153</v>
+        <v>70.95107296238162</v>
       </c>
       <c r="V41" t="n">
-        <v>147.5825050840095</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W41" t="n">
-        <v>169.0712153312876</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X41" t="n">
-        <v>189.5613472923437</v>
+        <v>189.5613472923438</v>
       </c>
       <c r="Y41" t="n">
-        <v>206.0681852699282</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="42">
@@ -3825,13 +3825,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>113.9766924789358</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H42" t="n">
         <v>97.71325251404465</v>
@@ -3867,16 +3867,16 @@
         <v>6.799003079515174</v>
       </c>
       <c r="S42" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>194.10392297596</v>
       </c>
       <c r="U42" t="n">
-        <v>45.67270368311613</v>
+        <v>45.67270368311622</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>197.0456849792267</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3904,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>71.41975685358192</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>21.87770778283086</v>
+        <v>21.87770778283095</v>
       </c>
       <c r="T43" t="n">
-        <v>42.38955835411881</v>
+        <v>42.3895583541189</v>
       </c>
       <c r="U43" t="n">
-        <v>106.0805149786033</v>
+        <v>148.606557321326</v>
       </c>
       <c r="V43" t="n">
-        <v>71.96788993770264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>45.53990200291187</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.41489996596943</v>
+        <v>38.41489996596951</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.5640882773552</v>
+        <v>202.5640882773553</v>
       </c>
       <c r="C44" t="n">
-        <v>185.1031383848822</v>
+        <v>185.1031383848823</v>
       </c>
       <c r="D44" t="n">
-        <v>174.5132882345576</v>
+        <v>174.5132882345577</v>
       </c>
       <c r="E44" t="n">
-        <v>201.7606166861364</v>
+        <v>201.7606166861365</v>
       </c>
       <c r="F44" t="n">
-        <v>226.7062923555861</v>
+        <v>226.7062923555862</v>
       </c>
       <c r="G44" t="n">
         <v>232.3226521373897</v>
       </c>
       <c r="H44" t="n">
-        <v>130.5237362204632</v>
+        <v>130.5237362204633</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>30.62386788468933</v>
+        <v>30.62386788468942</v>
       </c>
       <c r="U44" t="n">
-        <v>70.95107296238153</v>
+        <v>70.9510729623816</v>
       </c>
       <c r="V44" t="n">
-        <v>147.5825050840095</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W44" t="n">
-        <v>169.0712153312876</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X44" t="n">
-        <v>189.5613472923437</v>
+        <v>189.5613472923438</v>
       </c>
       <c r="Y44" t="n">
-        <v>206.0681852699282</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="45">
@@ -4062,13 +4062,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>78.37542372635126</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>6.799003079515174</v>
       </c>
       <c r="S45" t="n">
-        <v>143.7533427911297</v>
+        <v>55.2543306535608</v>
       </c>
       <c r="T45" t="n">
         <v>194.10392297596</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.2925585948017</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S46" t="n">
-        <v>21.87770778283086</v>
+        <v>85.65505110579232</v>
       </c>
       <c r="T46" t="n">
-        <v>42.38955835411881</v>
+        <v>42.3895583541189</v>
       </c>
       <c r="U46" t="n">
-        <v>106.0805149786033</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V46" t="n">
-        <v>71.96788993770264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>45.53990200291187</v>
       </c>
       <c r="Y46" t="n">
-        <v>38.41489996596943</v>
+        <v>38.41489996596951</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>719.0541622771591</v>
+        <v>946.0758505107584</v>
       </c>
       <c r="C11" t="n">
-        <v>719.0541622771591</v>
+        <v>946.0758505107584</v>
       </c>
       <c r="D11" t="n">
-        <v>568.2671621046734</v>
+        <v>731.9979586135053</v>
       </c>
       <c r="E11" t="n">
-        <v>568.2671621046734</v>
+        <v>731.9979586135053</v>
       </c>
       <c r="F11" t="n">
-        <v>301.4690640245632</v>
+        <v>465.1998605333949</v>
       </c>
       <c r="G11" t="n">
-        <v>28.99787525576263</v>
+        <v>192.7286717645945</v>
       </c>
       <c r="H11" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I11" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J11" t="n">
-        <v>85.90061049936639</v>
+        <v>85.9006104993659</v>
       </c>
       <c r="K11" t="n">
-        <v>221.9215783630814</v>
+        <v>221.9215783630808</v>
       </c>
       <c r="L11" t="n">
-        <v>427.5693786526957</v>
+        <v>427.5693786526951</v>
       </c>
       <c r="M11" t="n">
-        <v>688.0616180080102</v>
+        <v>688.0616180080098</v>
       </c>
       <c r="N11" t="n">
-        <v>957.3827025111783</v>
+        <v>957.3827025111779</v>
       </c>
       <c r="O11" t="n">
-        <v>1198.359704313247</v>
+        <v>1198.359704313246</v>
       </c>
       <c r="P11" t="n">
-        <v>1369.52699929238</v>
+        <v>1369.526999292379</v>
       </c>
       <c r="Q11" t="n">
         <v>1449.893762788131</v>
       </c>
       <c r="R11" t="n">
-        <v>1449.893762788131</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="S11" t="n">
-        <v>1449.893762788131</v>
+        <v>1447.637499470149</v>
       </c>
       <c r="T11" t="n">
-        <v>1381.158719729129</v>
+        <v>1378.902456411146</v>
       </c>
       <c r="U11" t="n">
-        <v>1381.158719729129</v>
+        <v>1378.902456411146</v>
       </c>
       <c r="V11" t="n">
-        <v>1194.283639095056</v>
+        <v>1192.027375777073</v>
       </c>
       <c r="W11" t="n">
-        <v>1194.283639095056</v>
+        <v>1192.027375777073</v>
       </c>
       <c r="X11" t="n">
-        <v>965.0056875434734</v>
+        <v>1192.027375777073</v>
       </c>
       <c r="Y11" t="n">
-        <v>719.0541622771591</v>
+        <v>946.0758505107584</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>528.2225359544814</v>
+        <v>672.4103426639772</v>
       </c>
       <c r="C12" t="n">
-        <v>353.7695066733544</v>
+        <v>497.9573133828502</v>
       </c>
       <c r="D12" t="n">
-        <v>349.0229037216005</v>
+        <v>349.0229037215989</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7444099812657</v>
+        <v>189.7854487161434</v>
       </c>
       <c r="F12" t="n">
-        <v>166.2098520081506</v>
+        <v>43.25089074302841</v>
       </c>
       <c r="G12" t="n">
-        <v>28.99787525576263</v>
+        <v>43.25089074302841</v>
       </c>
       <c r="H12" t="n">
-        <v>28.99787525576263</v>
+        <v>43.25089074302841</v>
       </c>
       <c r="I12" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J12" t="n">
-        <v>44.07090758709818</v>
+        <v>44.07090758709815</v>
       </c>
       <c r="K12" t="n">
-        <v>147.9879453635422</v>
+        <v>354.1556615933071</v>
       </c>
       <c r="L12" t="n">
-        <v>334.0397679681047</v>
+        <v>540.2074841978696</v>
       </c>
       <c r="M12" t="n">
-        <v>674.9672344706629</v>
+        <v>776.6780538521195</v>
       </c>
       <c r="N12" t="n">
-        <v>1033.815940760725</v>
+        <v>1033.815940760724</v>
       </c>
       <c r="O12" t="n">
-        <v>1246.827076119565</v>
+        <v>1246.827076119564</v>
       </c>
       <c r="P12" t="n">
-        <v>1398.454225395175</v>
+        <v>1398.454225395174</v>
       </c>
       <c r="Q12" t="n">
-        <v>1449.893762788131</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="R12" t="n">
-        <v>1449.893762788131</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="S12" t="n">
-        <v>1304.688366029415</v>
+        <v>1448.876172738911</v>
       </c>
       <c r="T12" t="n">
-        <v>1252.811604076326</v>
+        <v>1396.999410785822</v>
       </c>
       <c r="U12" t="n">
-        <v>1168.875716776488</v>
+        <v>1313.063523485985</v>
       </c>
       <c r="V12" t="n">
-        <v>933.7236085447457</v>
+        <v>1222.099221963739</v>
       </c>
       <c r="W12" t="n">
-        <v>823.6740585260414</v>
+        <v>1112.049671945035</v>
       </c>
       <c r="X12" t="n">
-        <v>760.010365030006</v>
+        <v>1048.385978448999</v>
       </c>
       <c r="Y12" t="n">
-        <v>552.2500662650521</v>
+        <v>840.6256796840453</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>463.420771415242</v>
+        <v>98.68598127423087</v>
       </c>
       <c r="C13" t="n">
-        <v>438.6723951968325</v>
+        <v>73.93760505582121</v>
       </c>
       <c r="D13" t="n">
-        <v>432.7435624939942</v>
+        <v>68.00877235298275</v>
       </c>
       <c r="E13" t="n">
-        <v>284.8304689116011</v>
+        <v>64.2834854800869</v>
       </c>
       <c r="F13" t="n">
-        <v>137.9405214136907</v>
+        <v>61.58134469167379</v>
       </c>
       <c r="G13" t="n">
-        <v>37.35464516263339</v>
+        <v>37.35464516263351</v>
       </c>
       <c r="H13" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I13" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J13" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="K13" t="n">
         <v>151.9473816770444</v>
@@ -5224,25 +5224,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S13" t="n">
-        <v>1142.587448376499</v>
+        <v>998.3996416670017</v>
       </c>
       <c r="T13" t="n">
-        <v>1061.96786948979</v>
+        <v>841.4208860582769</v>
       </c>
       <c r="U13" t="n">
-        <v>917.0139909823897</v>
+        <v>696.4670075508765</v>
       </c>
       <c r="V13" t="n">
-        <v>806.5173094860003</v>
+        <v>585.9703260544868</v>
       </c>
       <c r="W13" t="n">
-        <v>661.287946158537</v>
+        <v>440.7409627270235</v>
       </c>
       <c r="X13" t="n">
-        <v>577.4862019700171</v>
+        <v>212.7514118290061</v>
       </c>
       <c r="Y13" t="n">
-        <v>500.8814295359844</v>
+        <v>136.1466393949733</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>836.6062568682304</v>
+        <v>979.5116089673461</v>
       </c>
       <c r="C14" t="n">
-        <v>809.8676079934204</v>
+        <v>979.5116089673461</v>
       </c>
       <c r="D14" t="n">
-        <v>809.8676079934204</v>
+        <v>979.5116089673461</v>
       </c>
       <c r="E14" t="n">
-        <v>568.2671621046736</v>
+        <v>737.9111630785992</v>
       </c>
       <c r="F14" t="n">
-        <v>301.4690640245632</v>
+        <v>471.1130649984889</v>
       </c>
       <c r="G14" t="n">
-        <v>28.99787525576263</v>
+        <v>198.6418762296881</v>
       </c>
       <c r="H14" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I14" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J14" t="n">
-        <v>85.90061049936591</v>
+        <v>85.90061049936594</v>
       </c>
       <c r="K14" t="n">
-        <v>221.9215783630808</v>
+        <v>221.9215783630809</v>
       </c>
       <c r="L14" t="n">
-        <v>427.5693786526951</v>
+        <v>427.5693786526949</v>
       </c>
       <c r="M14" t="n">
-        <v>688.0616180080098</v>
+        <v>688.0616180080094</v>
       </c>
       <c r="N14" t="n">
-        <v>957.3827025111779</v>
+        <v>957.3827025111775</v>
       </c>
       <c r="O14" t="n">
         <v>1198.359704313246</v>
@@ -5297,31 +5297,31 @@
         <v>1369.526999292379</v>
       </c>
       <c r="Q14" t="n">
-        <v>1449.893762788131</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="R14" t="n">
-        <v>1449.893762788131</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="S14" t="n">
-        <v>1447.63749947015</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="T14" t="n">
-        <v>1378.902456411148</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="U14" t="n">
-        <v>1269.432862768618</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="V14" t="n">
-        <v>1082.557782134545</v>
+        <v>1263.018682154057</v>
       </c>
       <c r="W14" t="n">
-        <v>1082.557782134545</v>
+        <v>1054.43783359344</v>
       </c>
       <c r="X14" t="n">
-        <v>1082.557782134545</v>
+        <v>1054.43783359344</v>
       </c>
       <c r="Y14" t="n">
-        <v>836.6062568682304</v>
+        <v>1054.43783359344</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>506.9936905101047</v>
+        <v>239.8469225354856</v>
       </c>
       <c r="C15" t="n">
-        <v>476.728467938475</v>
+        <v>65.39389325435863</v>
       </c>
       <c r="D15" t="n">
-        <v>327.7940582772238</v>
+        <v>60.64729030260465</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7444099812657</v>
+        <v>45.59764200664642</v>
       </c>
       <c r="F15" t="n">
-        <v>166.2098520081506</v>
+        <v>43.25089074302867</v>
       </c>
       <c r="G15" t="n">
-        <v>28.99787525576263</v>
+        <v>43.25089074302867</v>
       </c>
       <c r="H15" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I15" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J15" t="n">
-        <v>44.07090758709818</v>
+        <v>168.9010325741029</v>
       </c>
       <c r="K15" t="n">
-        <v>147.9879453635422</v>
+        <v>272.8180703505469</v>
       </c>
       <c r="L15" t="n">
-        <v>334.0397679681047</v>
+        <v>458.8698929551094</v>
       </c>
       <c r="M15" t="n">
-        <v>692.8884742581672</v>
+        <v>695.3404626093594</v>
       </c>
       <c r="N15" t="n">
-        <v>950.0263611667719</v>
+        <v>952.4783495179641</v>
       </c>
       <c r="O15" t="n">
-        <v>1163.037496525611</v>
+        <v>1165.489484876804</v>
       </c>
       <c r="P15" t="n">
-        <v>1314.664645801222</v>
+        <v>1317.116634152414</v>
       </c>
       <c r="Q15" t="n">
-        <v>1449.893762788131</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="R15" t="n">
-        <v>1443.026082909833</v>
+        <v>1449.89376278813</v>
       </c>
       <c r="S15" t="n">
-        <v>1442.008492860614</v>
+        <v>1448.876172738911</v>
       </c>
       <c r="T15" t="n">
-        <v>1245.943924198028</v>
+        <v>1396.999410785822</v>
       </c>
       <c r="U15" t="n">
-        <v>1017.820230188693</v>
+        <v>1313.063523485985</v>
       </c>
       <c r="V15" t="n">
-        <v>926.8559286664479</v>
+        <v>1077.911415254242</v>
       </c>
       <c r="W15" t="n">
-        <v>672.6185719382463</v>
+        <v>823.6740585260404</v>
       </c>
       <c r="X15" t="n">
-        <v>608.9548784422109</v>
+        <v>615.8225583205076</v>
       </c>
       <c r="Y15" t="n">
-        <v>545.3823863867544</v>
+        <v>408.0622595555537</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.68598127423002</v>
+        <v>98.6859812742307</v>
       </c>
       <c r="C16" t="n">
-        <v>73.93760505582051</v>
+        <v>73.93760505582107</v>
       </c>
       <c r="D16" t="n">
-        <v>68.00877235298219</v>
+        <v>68.00877235298263</v>
       </c>
       <c r="E16" t="n">
-        <v>64.28348548008648</v>
+        <v>64.28348548008681</v>
       </c>
       <c r="F16" t="n">
-        <v>61.58134469167352</v>
+        <v>61.58134469167373</v>
       </c>
       <c r="G16" t="n">
-        <v>37.35464516263339</v>
+        <v>37.35464516263348</v>
       </c>
       <c r="H16" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I16" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J16" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="K16" t="n">
         <v>151.9473816770444</v>
@@ -5461,25 +5461,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S16" t="n">
-        <v>1142.587448376499</v>
+        <v>998.3996416670017</v>
       </c>
       <c r="T16" t="n">
-        <v>1061.96786948979</v>
+        <v>773.5922560707954</v>
       </c>
       <c r="U16" t="n">
-        <v>917.0139909823897</v>
+        <v>552.2792008413788</v>
       </c>
       <c r="V16" t="n">
-        <v>730.158132763983</v>
+        <v>441.7825193449893</v>
       </c>
       <c r="W16" t="n">
-        <v>440.7409627270223</v>
+        <v>296.553156017526</v>
       </c>
       <c r="X16" t="n">
-        <v>356.9392185385024</v>
+        <v>212.7514118290059</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.1466393949723</v>
+        <v>136.1466393949731</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>753.3741735698595</v>
+        <v>850.5282706760449</v>
       </c>
       <c r="C17" t="n">
-        <v>608.2378512280541</v>
+        <v>705.3919483342393</v>
       </c>
       <c r="D17" t="n">
-        <v>473.7983472199096</v>
+        <v>570.9524443260948</v>
       </c>
       <c r="E17" t="n">
-        <v>311.8362892202713</v>
+        <v>408.9903863264565</v>
       </c>
       <c r="F17" t="n">
-        <v>311.8362892202713</v>
+        <v>221.8306761354546</v>
       </c>
       <c r="G17" t="n">
-        <v>119.0034883405793</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="H17" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I17" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J17" t="n">
-        <v>85.90061049936591</v>
+        <v>85.90061049936554</v>
       </c>
       <c r="K17" t="n">
-        <v>221.9215783630808</v>
+        <v>221.9215783630805</v>
       </c>
       <c r="L17" t="n">
-        <v>427.5693786526951</v>
+        <v>427.5693786526948</v>
       </c>
       <c r="M17" t="n">
-        <v>688.0616180080098</v>
+        <v>688.0616180080094</v>
       </c>
       <c r="N17" t="n">
-        <v>957.3827025111779</v>
+        <v>957.3827025111775</v>
       </c>
       <c r="O17" t="n">
         <v>1198.359704313246</v>
@@ -5546,19 +5546,19 @@
         <v>1449.893762788131</v>
       </c>
       <c r="U17" t="n">
-        <v>1449.893762788131</v>
+        <v>1420.062557034709</v>
       </c>
       <c r="V17" t="n">
-        <v>1342.657070043167</v>
+        <v>1312.825864289745</v>
       </c>
       <c r="W17" t="n">
-        <v>1213.714609371659</v>
+        <v>1183.883403618237</v>
       </c>
       <c r="X17" t="n">
-        <v>1082.460956412581</v>
+        <v>1034.243839955763</v>
       </c>
       <c r="Y17" t="n">
-        <v>916.1478190353753</v>
+        <v>1013.301916141561</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>582.4045529602761</v>
+        <v>658.1573271767114</v>
       </c>
       <c r="C18" t="n">
-        <v>582.4045529602761</v>
+        <v>483.7042978955844</v>
       </c>
       <c r="D18" t="n">
-        <v>433.4701432990248</v>
+        <v>334.7698882343332</v>
       </c>
       <c r="E18" t="n">
-        <v>274.2326882935693</v>
+        <v>175.5324332288776</v>
       </c>
       <c r="F18" t="n">
-        <v>127.6981303204542</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="G18" t="n">
-        <v>127.6981303204542</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="H18" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I18" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J18" t="n">
-        <v>44.07090758709818</v>
+        <v>168.9010325741029</v>
       </c>
       <c r="K18" t="n">
-        <v>147.9879453635422</v>
+        <v>272.8180703505469</v>
       </c>
       <c r="L18" t="n">
-        <v>506.8366516536047</v>
+        <v>458.8698929551094</v>
       </c>
       <c r="M18" t="n">
-        <v>743.3072213078547</v>
+        <v>695.3404626093594</v>
       </c>
       <c r="N18" t="n">
-        <v>1000.445108216459</v>
+        <v>952.4783495179641</v>
       </c>
       <c r="O18" t="n">
-        <v>1246.827076119565</v>
+        <v>1246.827076119564</v>
       </c>
       <c r="P18" t="n">
-        <v>1398.454225395175</v>
+        <v>1398.454225395174</v>
       </c>
       <c r="Q18" t="n">
         <v>1449.893762788131</v>
       </c>
       <c r="R18" t="n">
-        <v>1443.026082909833</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="S18" t="n">
-        <v>1297.820686151116</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="T18" t="n">
-        <v>1297.820686151116</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="U18" t="n">
-        <v>1069.696992141781</v>
+        <v>1445.596263377402</v>
       </c>
       <c r="V18" t="n">
-        <v>1058.371078508645</v>
+        <v>1434.270349744265</v>
       </c>
       <c r="W18" t="n">
-        <v>958.380188745298</v>
+        <v>1241.984463167266</v>
       </c>
       <c r="X18" t="n">
-        <v>958.380188745298</v>
+        <v>1034.132962961733</v>
       </c>
       <c r="Y18" t="n">
-        <v>750.6198899803442</v>
+        <v>826.3726641967794</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>367.1337109804284</v>
+        <v>344.3023289922105</v>
       </c>
       <c r="C19" t="n">
-        <v>198.1975280525215</v>
+        <v>344.3023289922105</v>
       </c>
       <c r="D19" t="n">
-        <v>147.7253986251672</v>
+        <v>344.3023289922105</v>
       </c>
       <c r="E19" t="n">
-        <v>147.7253986251672</v>
+        <v>344.3023289922105</v>
       </c>
       <c r="F19" t="n">
-        <v>147.7253986251672</v>
+        <v>197.4123814943001</v>
       </c>
       <c r="G19" t="n">
-        <v>147.7253986251672</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="H19" t="n">
-        <v>147.7253986251672</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I19" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J19" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="K19" t="n">
         <v>151.9473816770444</v>
@@ -5698,25 +5698,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S19" t="n">
-        <v>1202.487986282109</v>
+        <v>1182.690219748967</v>
       </c>
       <c r="T19" t="n">
-        <v>1201.506795284509</v>
+        <v>1181.709028751367</v>
       </c>
       <c r="U19" t="n">
-        <v>1136.191304666217</v>
+        <v>1116.393538133075</v>
       </c>
       <c r="V19" t="n">
-        <v>881.5068164603305</v>
+        <v>861.7090499271885</v>
       </c>
       <c r="W19" t="n">
-        <v>815.9158410219759</v>
+        <v>572.2918798902278</v>
       </c>
       <c r="X19" t="n">
-        <v>587.9262901239586</v>
+        <v>344.3023289922105</v>
       </c>
       <c r="Y19" t="n">
-        <v>367.1337109804284</v>
+        <v>344.3023289922105</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>716.0887666678998</v>
+        <v>834.0995177845493</v>
       </c>
       <c r="C20" t="n">
-        <v>570.9524443260941</v>
+        <v>688.9631954427437</v>
       </c>
       <c r="D20" t="n">
-        <v>570.9524443260941</v>
+        <v>570.9524443260943</v>
       </c>
       <c r="E20" t="n">
-        <v>408.990386326456</v>
+        <v>408.9903863264561</v>
       </c>
       <c r="F20" t="n">
-        <v>221.8306761354545</v>
+        <v>221.8306761354546</v>
       </c>
       <c r="G20" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="H20" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I20" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J20" t="n">
-        <v>85.90061049936591</v>
+        <v>85.9006104993659</v>
       </c>
       <c r="K20" t="n">
         <v>221.9215783630808</v>
@@ -5783,19 +5783,19 @@
         <v>1449.893762788131</v>
       </c>
       <c r="U20" t="n">
-        <v>1420.06255703471</v>
+        <v>1420.062557034709</v>
       </c>
       <c r="V20" t="n">
-        <v>1312.825864289746</v>
+        <v>1312.825864289745</v>
       </c>
       <c r="W20" t="n">
-        <v>1183.883403618238</v>
+        <v>1312.825864289745</v>
       </c>
       <c r="X20" t="n">
-        <v>1034.243839955764</v>
+        <v>1163.186300627271</v>
       </c>
       <c r="Y20" t="n">
-        <v>878.8624121334155</v>
+        <v>996.8731632500651</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>324.4668428901289</v>
+        <v>352.3853141981409</v>
       </c>
       <c r="C21" t="n">
-        <v>324.4668428901289</v>
+        <v>177.9322849170139</v>
       </c>
       <c r="D21" t="n">
-        <v>175.5324332288777</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="E21" t="n">
-        <v>175.5324332288777</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="F21" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="G21" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="H21" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I21" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J21" t="n">
-        <v>44.07090758709818</v>
+        <v>44.07090758709816</v>
       </c>
       <c r="K21" t="n">
-        <v>147.9879453635422</v>
+        <v>354.1556615933073</v>
       </c>
       <c r="L21" t="n">
-        <v>334.0397679681047</v>
+        <v>540.2074841978698</v>
       </c>
       <c r="M21" t="n">
-        <v>674.9672344706629</v>
+        <v>776.6780538521198</v>
       </c>
       <c r="N21" t="n">
         <v>1033.815940760725</v>
       </c>
       <c r="O21" t="n">
-        <v>1246.827076119565</v>
+        <v>1246.827076119564</v>
       </c>
       <c r="P21" t="n">
-        <v>1398.454225395175</v>
+        <v>1398.454225395174</v>
       </c>
       <c r="Q21" t="n">
         <v>1449.893762788131</v>
@@ -5856,25 +5856,25 @@
         <v>1449.893762788131</v>
       </c>
       <c r="S21" t="n">
-        <v>1418.046839085009</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="T21" t="n">
-        <v>1418.046839085009</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="U21" t="n">
-        <v>1189.923145075674</v>
+        <v>1425.60191514864</v>
       </c>
       <c r="V21" t="n">
-        <v>954.7710368439314</v>
+        <v>1190.449806916897</v>
       </c>
       <c r="W21" t="n">
-        <v>700.5336801157298</v>
+        <v>936.2124501886956</v>
       </c>
       <c r="X21" t="n">
-        <v>492.682179910197</v>
+        <v>728.3609499831628</v>
       </c>
       <c r="Y21" t="n">
-        <v>492.682179910197</v>
+        <v>520.6006512182089</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>611.4646226333775</v>
+        <v>661.1516055025105</v>
       </c>
       <c r="C22" t="n">
-        <v>442.5284397054706</v>
+        <v>492.2154225746036</v>
       </c>
       <c r="D22" t="n">
-        <v>442.5284397054706</v>
+        <v>492.2154225746036</v>
       </c>
       <c r="E22" t="n">
-        <v>294.6153461230775</v>
+        <v>344.3023289922105</v>
       </c>
       <c r="F22" t="n">
-        <v>147.7253986251672</v>
+        <v>197.4123814943001</v>
       </c>
       <c r="G22" t="n">
-        <v>147.7253986251672</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="H22" t="n">
-        <v>147.7253986251672</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I22" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J22" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="K22" t="n">
         <v>151.9473816770444</v>
@@ -5935,25 +5935,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S22" t="n">
-        <v>1183.848589023162</v>
+        <v>1202.487986282109</v>
       </c>
       <c r="T22" t="n">
-        <v>1182.867398025561</v>
+        <v>1047.872300609379</v>
       </c>
       <c r="U22" t="n">
-        <v>893.7257128086637</v>
+        <v>982.5568099910874</v>
       </c>
       <c r="V22" t="n">
-        <v>862.867419201383</v>
+        <v>951.6985163838066</v>
       </c>
       <c r="W22" t="n">
-        <v>797.2764437630285</v>
+        <v>886.107540945452</v>
       </c>
       <c r="X22" t="n">
-        <v>793.1130874636173</v>
+        <v>881.9441846460406</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.1130874636173</v>
+        <v>661.1516055025105</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>945.3374924679595</v>
+        <v>945.3374924679608</v>
       </c>
       <c r="C23" t="n">
-        <v>800.2011701261538</v>
+        <v>800.2011701261551</v>
       </c>
       <c r="D23" t="n">
-        <v>665.7616661180093</v>
+        <v>665.7616661180107</v>
       </c>
       <c r="E23" t="n">
-        <v>503.7996081183712</v>
+        <v>503.7996081183724</v>
       </c>
       <c r="F23" t="n">
-        <v>316.6398979273697</v>
+        <v>316.6398979273708</v>
       </c>
       <c r="G23" t="n">
-        <v>123.8070970476777</v>
+        <v>123.8070970476778</v>
       </c>
       <c r="H23" t="n">
-        <v>33.80148396286097</v>
+        <v>33.801483962861</v>
       </c>
       <c r="I23" t="n">
-        <v>33.80148396286097</v>
+        <v>33.801483962861</v>
       </c>
       <c r="J23" t="n">
-        <v>90.70421920646426</v>
+        <v>90.70421920646429</v>
       </c>
       <c r="K23" t="n">
         <v>226.7251870701792</v>
       </c>
       <c r="L23" t="n">
-        <v>457.5579732543073</v>
+        <v>645.0185511105841</v>
       </c>
       <c r="M23" t="n">
-        <v>718.0502126096219</v>
+        <v>905.5107904658987</v>
       </c>
       <c r="N23" t="n">
-        <v>987.37129711279</v>
+        <v>1174.831874969067</v>
       </c>
       <c r="O23" t="n">
-        <v>1228.348298914858</v>
+        <v>1438.540139668165</v>
       </c>
       <c r="P23" t="n">
-        <v>1399.515593893991</v>
+        <v>1609.707434647298</v>
       </c>
       <c r="Q23" t="n">
-        <v>1690.074198143049</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="R23" t="n">
-        <v>1690.074198143049</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="S23" t="n">
-        <v>1690.074198143049</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="T23" t="n">
-        <v>1690.074198143049</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="U23" t="n">
-        <v>1660.242992389627</v>
+        <v>1660.242992389629</v>
       </c>
       <c r="V23" t="n">
-        <v>1553.006299644663</v>
+        <v>1553.006299644664</v>
       </c>
       <c r="W23" t="n">
-        <v>1424.063838973155</v>
+        <v>1424.063838973156</v>
       </c>
       <c r="X23" t="n">
-        <v>1274.424275310681</v>
+        <v>1274.424275310682</v>
       </c>
       <c r="Y23" t="n">
-        <v>1108.111137933475</v>
+        <v>1108.111137933477</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>451.2888051894516</v>
+        <v>662.9609358838098</v>
       </c>
       <c r="C24" t="n">
-        <v>276.8357759083245</v>
+        <v>488.5079066026828</v>
       </c>
       <c r="D24" t="n">
-        <v>276.8357759083245</v>
+        <v>339.5734969414315</v>
       </c>
       <c r="E24" t="n">
-        <v>117.598320902869</v>
+        <v>180.336041935976</v>
       </c>
       <c r="F24" t="n">
-        <v>117.598320902869</v>
+        <v>33.801483962861</v>
       </c>
       <c r="G24" t="n">
-        <v>71.807420034554</v>
+        <v>33.801483962861</v>
       </c>
       <c r="H24" t="n">
-        <v>71.807420034554</v>
+        <v>33.801483962861</v>
       </c>
       <c r="I24" t="n">
-        <v>33.80148396286097</v>
+        <v>33.801483962861</v>
       </c>
       <c r="J24" t="n">
-        <v>48.87451629419651</v>
+        <v>48.87451629419654</v>
       </c>
       <c r="K24" t="n">
-        <v>204.5367877035801</v>
+        <v>414.6121387130934</v>
       </c>
       <c r="L24" t="n">
-        <v>390.5886103081426</v>
+        <v>600.6639613176559</v>
       </c>
       <c r="M24" t="n">
-        <v>808.8819743485471</v>
+        <v>837.1345309719059</v>
       </c>
       <c r="N24" t="n">
-        <v>1066.019861257152</v>
+        <v>1094.272417880511</v>
       </c>
       <c r="O24" t="n">
-        <v>1279.030996615991</v>
+        <v>1307.28355323935</v>
       </c>
       <c r="P24" t="n">
-        <v>1430.658145891602</v>
+        <v>1638.634660750094</v>
       </c>
       <c r="Q24" t="n">
-        <v>1690.074198143049</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="R24" t="n">
-        <v>1690.074198143049</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="S24" t="n">
-        <v>1544.868801384332</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="T24" t="n">
-        <v>1544.868801384332</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="U24" t="n">
-        <v>1316.745107374997</v>
+        <v>1685.776698732321</v>
       </c>
       <c r="V24" t="n">
-        <v>1081.592999143254</v>
+        <v>1501.025428602566</v>
       </c>
       <c r="W24" t="n">
-        <v>827.3556424150524</v>
+        <v>1246.788071874365</v>
       </c>
       <c r="X24" t="n">
-        <v>619.5041422095196</v>
+        <v>1038.936571668832</v>
       </c>
       <c r="Y24" t="n">
-        <v>619.5041422095196</v>
+        <v>831.1762729038778</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>331.8312169575898</v>
+        <v>186.3460605792292</v>
       </c>
       <c r="C25" t="n">
-        <v>331.8312169575898</v>
+        <v>186.3460605792292</v>
       </c>
       <c r="D25" t="n">
-        <v>181.7145775452541</v>
+        <v>186.3460605792292</v>
       </c>
       <c r="E25" t="n">
-        <v>33.80148396286097</v>
+        <v>186.3460605792292</v>
       </c>
       <c r="F25" t="n">
-        <v>33.80148396286097</v>
+        <v>186.3460605792292</v>
       </c>
       <c r="G25" t="n">
-        <v>33.80148396286097</v>
+        <v>186.3460605792292</v>
       </c>
       <c r="H25" t="n">
-        <v>33.80148396286097</v>
+        <v>33.801483962861</v>
       </c>
       <c r="I25" t="n">
-        <v>33.80148396286097</v>
+        <v>33.801483962861</v>
       </c>
       <c r="J25" t="n">
-        <v>33.80148396286097</v>
+        <v>33.801483962861</v>
       </c>
       <c r="K25" t="n">
         <v>156.7509903841428</v>
@@ -6172,25 +6172,25 @@
         <v>1207.291594989207</v>
       </c>
       <c r="S25" t="n">
-        <v>1207.291594989207</v>
+        <v>1003.2032503741</v>
       </c>
       <c r="T25" t="n">
-        <v>1206.310403991607</v>
+        <v>978.5414151149436</v>
       </c>
       <c r="U25" t="n">
-        <v>917.1687187747095</v>
+        <v>689.3997298980458</v>
       </c>
       <c r="V25" t="n">
-        <v>662.4842305688227</v>
+        <v>658.541436290765</v>
       </c>
       <c r="W25" t="n">
-        <v>373.0670605318621</v>
+        <v>592.9504608524104</v>
       </c>
       <c r="X25" t="n">
-        <v>331.8312169575898</v>
+        <v>588.787104552999</v>
       </c>
       <c r="Y25" t="n">
-        <v>331.8312169575898</v>
+        <v>367.9945254094689</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1873.862981641646</v>
+        <v>1873.862981641647</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.538852590343</v>
+        <v>1584.538852590344</v>
       </c>
       <c r="D26" t="n">
-        <v>1305.911541872701</v>
+        <v>1305.911541872702</v>
       </c>
       <c r="E26" t="n">
-        <v>999.7616771635658</v>
+        <v>999.7616771635668</v>
       </c>
       <c r="F26" t="n">
-        <v>668.4141602630671</v>
+        <v>668.414160263068</v>
       </c>
       <c r="G26" t="n">
-        <v>331.3935526738778</v>
+        <v>331.3935526738787</v>
       </c>
       <c r="H26" t="n">
-        <v>97.20013287956417</v>
+        <v>97.20013287956411</v>
       </c>
       <c r="I26" t="n">
-        <v>73.67633343182962</v>
+        <v>73.6763334318296</v>
       </c>
       <c r="J26" t="n">
-        <v>297.9847176957859</v>
+        <v>152.2717982462974</v>
       </c>
       <c r="K26" t="n">
-        <v>754.909644004954</v>
+        <v>609.1967245554654</v>
       </c>
       <c r="L26" t="n">
-        <v>1374.042046699514</v>
+        <v>1228.329127250026</v>
       </c>
       <c r="M26" t="n">
-        <v>1989.821040480991</v>
+        <v>1933.839764763244</v>
       </c>
       <c r="N26" t="n">
-        <v>2259.142124984159</v>
+        <v>2636.134304434277</v>
       </c>
       <c r="O26" t="n">
         <v>2877.111306236345</v>
@@ -6248,7 +6248,7 @@
         <v>3657.417926554303</v>
       </c>
       <c r="R26" t="n">
-        <v>3683.816671591481</v>
+        <v>3683.81667159148</v>
       </c>
       <c r="S26" t="n">
         <v>3617.010989453111</v>
@@ -6257,10 +6257,10 @@
         <v>3483.72652757372</v>
       </c>
       <c r="U26" t="n">
-        <v>3309.707515110801</v>
+        <v>3309.707515110802</v>
       </c>
       <c r="V26" t="n">
-        <v>3058.283015656339</v>
+        <v>3058.28301565634</v>
       </c>
       <c r="W26" t="n">
         <v>2785.152748275334</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>976.7539532415511</v>
+        <v>976.7539532415509</v>
       </c>
       <c r="C27" t="n">
-        <v>802.3009239604241</v>
+        <v>802.3009239604239</v>
       </c>
       <c r="D27" t="n">
-        <v>653.3665142991729</v>
+        <v>653.3665142991726</v>
       </c>
       <c r="E27" t="n">
-        <v>494.1290592937173</v>
+        <v>494.1290592937172</v>
       </c>
       <c r="F27" t="n">
-        <v>347.5945013206023</v>
+        <v>347.5945013206022</v>
       </c>
       <c r="G27" t="n">
         <v>210.3825245682142</v>
@@ -6300,34 +6300,34 @@
         <v>111.6822695035226</v>
       </c>
       <c r="I27" t="n">
-        <v>73.67633343182962</v>
+        <v>73.6763334318296</v>
       </c>
       <c r="J27" t="n">
-        <v>128.5997000658505</v>
+        <v>213.5794907501699</v>
       </c>
       <c r="K27" t="n">
-        <v>494.3373224847473</v>
+        <v>579.3171131690667</v>
       </c>
       <c r="L27" t="n">
-        <v>1047.521086939734</v>
+        <v>1132.500877624054</v>
       </c>
       <c r="M27" t="n">
-        <v>1745.039669706484</v>
+        <v>1429.761528752947</v>
       </c>
       <c r="N27" t="n">
-        <v>2002.177556615089</v>
+        <v>1686.899415661551</v>
       </c>
       <c r="O27" t="n">
-        <v>2215.188691973929</v>
+        <v>1899.910551020391</v>
       </c>
       <c r="P27" t="n">
         <v>2366.815841249539</v>
       </c>
       <c r="Q27" t="n">
-        <v>2626.231893500986</v>
+        <v>2626.231893500985</v>
       </c>
       <c r="R27" t="n">
-        <v>2619.364213622688</v>
+        <v>2619.364213622687</v>
       </c>
       <c r="S27" t="n">
         <v>2474.158816863971</v>
@@ -6358,61 +6358,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>569.7500878529252</v>
+        <v>569.7500878529249</v>
       </c>
       <c r="C28" t="n">
-        <v>480.452292814127</v>
+        <v>480.4522928141268</v>
       </c>
       <c r="D28" t="n">
-        <v>409.9740412908999</v>
+        <v>409.9740412908998</v>
       </c>
       <c r="E28" t="n">
         <v>341.6993355976155</v>
       </c>
       <c r="F28" t="n">
-        <v>274.4477759888138</v>
+        <v>274.4477759888139</v>
       </c>
       <c r="G28" t="n">
-        <v>185.671657639385</v>
+        <v>185.6716576393851</v>
       </c>
       <c r="H28" t="n">
-        <v>112.7654689121255</v>
+        <v>112.7654689121254</v>
       </c>
       <c r="I28" t="n">
-        <v>73.67633343182962</v>
+        <v>73.6763334318296</v>
       </c>
       <c r="J28" t="n">
-        <v>147.5387775206253</v>
+        <v>147.538777520625</v>
       </c>
       <c r="K28" t="n">
-        <v>348.5418679120224</v>
+        <v>348.5418679120223</v>
       </c>
       <c r="L28" t="n">
-        <v>639.454924670831</v>
+        <v>639.4549246708308</v>
       </c>
       <c r="M28" t="n">
-        <v>952.3281006907839</v>
+        <v>952.3281006907837</v>
       </c>
       <c r="N28" t="n">
-        <v>1265.05240808124</v>
+        <v>1265.052408081239</v>
       </c>
       <c r="O28" t="n">
-        <v>1543.846092172783</v>
+        <v>1543.846092172782</v>
       </c>
       <c r="P28" t="n">
-        <v>1770.146828491807</v>
+        <v>1770.146828491806</v>
       </c>
       <c r="Q28" t="n">
-        <v>1867.40397633778</v>
+        <v>1867.403976337779</v>
       </c>
       <c r="R28" t="n">
-        <v>1825.212653282902</v>
+        <v>1825.212653282901</v>
       </c>
       <c r="S28" t="n">
-        <v>1700.762696556903</v>
+        <v>1700.762696556902</v>
       </c>
       <c r="T28" t="n">
-        <v>1555.593698849806</v>
+        <v>1555.593698849805</v>
       </c>
       <c r="U28" t="n">
         <v>1346.090401522016</v>
@@ -6421,13 +6421,13 @@
         <v>1171.044301205238</v>
       </c>
       <c r="W28" t="n">
-        <v>961.2655190573863</v>
+        <v>961.265519057386</v>
       </c>
       <c r="X28" t="n">
-        <v>812.9143560484777</v>
+        <v>812.9143560484774</v>
       </c>
       <c r="Y28" t="n">
-        <v>671.7601647940562</v>
+        <v>671.7601647940559</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1873.862981641646</v>
+        <v>1873.862981641647</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.538852590343</v>
+        <v>1584.538852590344</v>
       </c>
       <c r="D29" t="n">
-        <v>1305.911541872701</v>
+        <v>1305.911541872702</v>
       </c>
       <c r="E29" t="n">
-        <v>999.7616771635662</v>
+        <v>999.7616771635671</v>
       </c>
       <c r="F29" t="n">
-        <v>668.4141602630675</v>
+        <v>668.4141602630687</v>
       </c>
       <c r="G29" t="n">
-        <v>331.3935526738782</v>
+        <v>331.3935526738793</v>
       </c>
       <c r="H29" t="n">
-        <v>97.20013287956415</v>
+        <v>97.20013287956418</v>
       </c>
       <c r="I29" t="n">
-        <v>73.67633343182962</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J29" t="n">
-        <v>297.9847176957859</v>
+        <v>130.5790686754329</v>
       </c>
       <c r="K29" t="n">
-        <v>754.909644004954</v>
+        <v>442.396385858654</v>
       </c>
       <c r="L29" t="n">
-        <v>960.5574442945683</v>
+        <v>1061.528788553214</v>
       </c>
       <c r="M29" t="n">
-        <v>1556.847585313126</v>
+        <v>1767.039426066433</v>
       </c>
       <c r="N29" t="n">
-        <v>2259.142124984159</v>
+        <v>2469.333965737465</v>
       </c>
       <c r="O29" t="n">
-        <v>2877.111306236345</v>
+        <v>3087.303146989652</v>
       </c>
       <c r="P29" t="n">
-        <v>3366.859322305246</v>
+        <v>3577.051163058553</v>
       </c>
       <c r="Q29" t="n">
-        <v>3657.417926554303</v>
+        <v>3657.417926554304</v>
       </c>
       <c r="R29" t="n">
-        <v>3683.816671591481</v>
+        <v>3683.816671591482</v>
       </c>
       <c r="S29" t="n">
-        <v>3617.010989453111</v>
+        <v>3617.010989453112</v>
       </c>
       <c r="T29" t="n">
-        <v>3483.72652757372</v>
+        <v>3483.726527573721</v>
       </c>
       <c r="U29" t="n">
         <v>3309.707515110802</v>
       </c>
       <c r="V29" t="n">
-        <v>3058.283015656339</v>
+        <v>3058.28301565634</v>
       </c>
       <c r="W29" t="n">
-        <v>2785.152748275334</v>
+        <v>2785.152748275335</v>
       </c>
       <c r="X29" t="n">
-        <v>2491.325377903363</v>
+        <v>2491.325377903364</v>
       </c>
       <c r="Y29" t="n">
-        <v>2180.824433816659</v>
+        <v>2180.824433816661</v>
       </c>
     </row>
     <row r="30">
@@ -6531,13 +6531,13 @@
         <v>347.5945013206023</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3825245682142</v>
+        <v>210.3825245682143</v>
       </c>
       <c r="H30" t="n">
-        <v>111.6822695035226</v>
+        <v>111.6822695035227</v>
       </c>
       <c r="I30" t="n">
-        <v>73.67633343182962</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J30" t="n">
         <v>213.5794907501699</v>
@@ -6546,13 +6546,13 @@
         <v>579.3171131690667</v>
       </c>
       <c r="L30" t="n">
-        <v>765.3689357736292</v>
+        <v>1132.500877624054</v>
       </c>
       <c r="M30" t="n">
-        <v>1001.839505427879</v>
+        <v>1368.971447278304</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.975719577589</v>
+        <v>1626.109334186909</v>
       </c>
       <c r="O30" t="n">
         <v>1899.910551020391</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>569.7500878529247</v>
+        <v>569.7500878529252</v>
       </c>
       <c r="C31" t="n">
-        <v>480.4522928141265</v>
+        <v>480.452292814127</v>
       </c>
       <c r="D31" t="n">
-        <v>409.9740412908994</v>
+        <v>409.9740412908999</v>
       </c>
       <c r="E31" t="n">
-        <v>341.699335597615</v>
+        <v>341.6993355976155</v>
       </c>
       <c r="F31" t="n">
-        <v>274.4477759888134</v>
+        <v>274.4477759888138</v>
       </c>
       <c r="G31" t="n">
-        <v>185.6716576393845</v>
+        <v>185.671657639385</v>
       </c>
       <c r="H31" t="n">
-        <v>112.7654689121251</v>
+        <v>112.7654689121255</v>
       </c>
       <c r="I31" t="n">
-        <v>73.67633343182962</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J31" t="n">
-        <v>147.5387775206254</v>
+        <v>147.5387775206253</v>
       </c>
       <c r="K31" t="n">
-        <v>348.5418679120228</v>
+        <v>348.5418679120226</v>
       </c>
       <c r="L31" t="n">
-        <v>639.4549246708314</v>
+        <v>639.4549246708311</v>
       </c>
       <c r="M31" t="n">
-        <v>952.3281006907843</v>
+        <v>952.3281006907839</v>
       </c>
       <c r="N31" t="n">
         <v>1265.05240808124</v>
@@ -6640,16 +6640,16 @@
         <v>1770.146828491806</v>
       </c>
       <c r="Q31" t="n">
-        <v>1867.403976337779</v>
+        <v>1867.40397633778</v>
       </c>
       <c r="R31" t="n">
-        <v>1825.212653282901</v>
+        <v>1825.212653282902</v>
       </c>
       <c r="S31" t="n">
-        <v>1700.762696556902</v>
+        <v>1700.762696556903</v>
       </c>
       <c r="T31" t="n">
-        <v>1555.593698849805</v>
+        <v>1555.593698849806</v>
       </c>
       <c r="U31" t="n">
         <v>1346.090401522016</v>
@@ -6658,13 +6658,13 @@
         <v>1171.044301205238</v>
       </c>
       <c r="W31" t="n">
-        <v>961.2655190573856</v>
+        <v>961.2655190573863</v>
       </c>
       <c r="X31" t="n">
-        <v>812.9143560484771</v>
+        <v>812.9143560484777</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.7601647940558</v>
+        <v>671.7601647940562</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1873.862981641646</v>
+        <v>1873.862981641647</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.538852590343</v>
+        <v>1584.538852590345</v>
       </c>
       <c r="D32" t="n">
-        <v>1305.911541872701</v>
+        <v>1305.911541872703</v>
       </c>
       <c r="E32" t="n">
-        <v>999.7616771635655</v>
+        <v>999.7616771635671</v>
       </c>
       <c r="F32" t="n">
-        <v>668.4141602630671</v>
+        <v>668.4141602630682</v>
       </c>
       <c r="G32" t="n">
-        <v>331.393552673878</v>
+        <v>331.3935526738783</v>
       </c>
       <c r="H32" t="n">
-        <v>97.20013287956411</v>
+        <v>97.20013287956418</v>
       </c>
       <c r="I32" t="n">
-        <v>73.67633343182962</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J32" t="n">
-        <v>297.9847176957859</v>
+        <v>208.2530739640445</v>
       </c>
       <c r="K32" t="n">
-        <v>754.909644004954</v>
+        <v>665.1780002732125</v>
       </c>
       <c r="L32" t="n">
-        <v>960.5574442945683</v>
+        <v>1284.310402967773</v>
       </c>
       <c r="M32" t="n">
-        <v>1666.068081807787</v>
+        <v>1989.821040480992</v>
       </c>
       <c r="N32" t="n">
-        <v>2285.540870021337</v>
+        <v>2259.14212498416</v>
       </c>
       <c r="O32" t="n">
-        <v>2903.510051273523</v>
+        <v>2877.111306236346</v>
       </c>
       <c r="P32" t="n">
-        <v>3393.258067342424</v>
+        <v>3366.859322305247</v>
       </c>
       <c r="Q32" t="n">
-        <v>3683.816671591481</v>
+        <v>3657.417926554304</v>
       </c>
       <c r="R32" t="n">
-        <v>3683.816671591481</v>
+        <v>3683.816671591482</v>
       </c>
       <c r="S32" t="n">
-        <v>3617.010989453111</v>
+        <v>3617.010989453112</v>
       </c>
       <c r="T32" t="n">
-        <v>3483.72652757372</v>
+        <v>3483.726527573721</v>
       </c>
       <c r="U32" t="n">
-        <v>3309.707515110801</v>
+        <v>3309.707515110802</v>
       </c>
       <c r="V32" t="n">
-        <v>3058.283015656339</v>
+        <v>3058.28301565634</v>
       </c>
       <c r="W32" t="n">
-        <v>2785.152748275333</v>
+        <v>2785.152748275335</v>
       </c>
       <c r="X32" t="n">
-        <v>2491.325377903362</v>
+        <v>2491.325377903363</v>
       </c>
       <c r="Y32" t="n">
-        <v>2180.824433816659</v>
+        <v>2180.824433816661</v>
       </c>
     </row>
     <row r="33">
@@ -6768,34 +6768,34 @@
         <v>347.5945013206023</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3825245682142</v>
+        <v>210.3825245682143</v>
       </c>
       <c r="H33" t="n">
-        <v>111.6822695035226</v>
+        <v>111.6822695035227</v>
       </c>
       <c r="I33" t="n">
-        <v>73.67633343182962</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J33" t="n">
-        <v>88.74936576316516</v>
+        <v>213.5794907501699</v>
       </c>
       <c r="K33" t="n">
-        <v>454.486988182062</v>
+        <v>579.3171131690667</v>
       </c>
       <c r="L33" t="n">
-        <v>640.5388107866245</v>
+        <v>1132.500877624054</v>
       </c>
       <c r="M33" t="n">
-        <v>1338.057393553374</v>
+        <v>1368.971447278304</v>
       </c>
       <c r="N33" t="n">
-        <v>2069.744231062097</v>
+        <v>1626.109334186909</v>
       </c>
       <c r="O33" t="n">
-        <v>2282.755366420937</v>
+        <v>1899.910551020391</v>
       </c>
       <c r="P33" t="n">
-        <v>2574.792356108029</v>
+        <v>2366.815841249539</v>
       </c>
       <c r="Q33" t="n">
         <v>2626.231893500986</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>569.7500878529247</v>
+        <v>569.7500878529253</v>
       </c>
       <c r="C34" t="n">
-        <v>480.4522928141266</v>
+        <v>480.4522928141271</v>
       </c>
       <c r="D34" t="n">
-        <v>409.9740412908996</v>
+        <v>409.9740412909</v>
       </c>
       <c r="E34" t="n">
-        <v>341.6993355976152</v>
+        <v>341.6993355976156</v>
       </c>
       <c r="F34" t="n">
-        <v>274.4477759888136</v>
+        <v>274.4477759888139</v>
       </c>
       <c r="G34" t="n">
-        <v>185.6716576393848</v>
+        <v>185.671657639385</v>
       </c>
       <c r="H34" t="n">
-        <v>112.7654689121254</v>
+        <v>112.7654689121255</v>
       </c>
       <c r="I34" t="n">
-        <v>73.67633343182962</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J34" t="n">
         <v>147.5387775206253</v>
       </c>
       <c r="K34" t="n">
-        <v>348.5418679120226</v>
+        <v>348.5418679120224</v>
       </c>
       <c r="L34" t="n">
-        <v>639.4549246708311</v>
+        <v>639.454924670831</v>
       </c>
       <c r="M34" t="n">
-        <v>952.3281006907841</v>
+        <v>952.3281006907839</v>
       </c>
       <c r="N34" t="n">
         <v>1265.05240808124</v>
       </c>
       <c r="O34" t="n">
-        <v>1543.846092172783</v>
+        <v>1543.846092172782</v>
       </c>
       <c r="P34" t="n">
-        <v>1770.146828491806</v>
+        <v>1770.146828491807</v>
       </c>
       <c r="Q34" t="n">
-        <v>1867.403976337779</v>
+        <v>1867.40397633778</v>
       </c>
       <c r="R34" t="n">
-        <v>1825.212653282901</v>
+        <v>1825.212653282902</v>
       </c>
       <c r="S34" t="n">
-        <v>1700.762696556902</v>
+        <v>1700.762696556903</v>
       </c>
       <c r="T34" t="n">
-        <v>1555.593698849804</v>
+        <v>1555.593698849806</v>
       </c>
       <c r="U34" t="n">
         <v>1346.090401522016</v>
       </c>
       <c r="V34" t="n">
-        <v>1171.044301205237</v>
+        <v>1171.044301205238</v>
       </c>
       <c r="W34" t="n">
-        <v>961.2655190573855</v>
+        <v>961.2655190573864</v>
       </c>
       <c r="X34" t="n">
-        <v>812.914356048477</v>
+        <v>812.9143560484778</v>
       </c>
       <c r="Y34" t="n">
-        <v>671.7601647940556</v>
+        <v>671.7601647940563</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1207.233734962951</v>
+        <v>1207.233734962952</v>
       </c>
       <c r="C35" t="n">
-        <v>1020.260867907514</v>
+        <v>1020.260867907515</v>
       </c>
       <c r="D35" t="n">
-        <v>843.9848191857388</v>
+        <v>843.9848191857394</v>
       </c>
       <c r="E35" t="n">
-        <v>640.1862164724697</v>
+        <v>640.1862164724702</v>
       </c>
       <c r="F35" t="n">
-        <v>411.1899615678373</v>
+        <v>411.1899615678376</v>
       </c>
       <c r="G35" t="n">
-        <v>176.5206159745147</v>
+        <v>176.5206159745149</v>
       </c>
       <c r="H35" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I35" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J35" t="n">
         <v>268.9868424400233</v>
       </c>
       <c r="K35" t="n">
-        <v>405.0078103037383</v>
+        <v>725.9117687491914</v>
       </c>
       <c r="L35" t="n">
-        <v>610.6556105933525</v>
+        <v>931.5595690388058</v>
       </c>
       <c r="M35" t="n">
-        <v>1163.551530522182</v>
+        <v>1192.05180839412</v>
       </c>
       <c r="N35" t="n">
-        <v>1716.447450451011</v>
+        <v>1461.372892897288</v>
       </c>
       <c r="O35" t="n">
-        <v>1957.424452253079</v>
+        <v>1702.349894699357</v>
       </c>
       <c r="P35" t="n">
-        <v>2153.556145307598</v>
+        <v>1916.965559517117</v>
       </c>
       <c r="Q35" t="n">
-        <v>2233.92290880335</v>
+        <v>2207.524163766174</v>
       </c>
       <c r="R35" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="S35" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="T35" t="n">
-        <v>2202.989708919825</v>
+        <v>2202.989708919827</v>
       </c>
       <c r="U35" t="n">
-        <v>2131.321958452773</v>
+        <v>2131.321958452775</v>
       </c>
       <c r="V35" t="n">
-        <v>1982.248720994178</v>
+        <v>1982.248720994179</v>
       </c>
       <c r="W35" t="n">
-        <v>1811.469715609039</v>
+        <v>1811.46971560904</v>
       </c>
       <c r="X35" t="n">
-        <v>1619.993607232934</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y35" t="n">
         <v>1411.843925142098</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>662.1154771881526</v>
+        <v>811.0498868494038</v>
       </c>
       <c r="C36" t="n">
-        <v>487.6624479070255</v>
+        <v>636.5968575682768</v>
       </c>
       <c r="D36" t="n">
-        <v>487.6624479070255</v>
+        <v>487.6624479070256</v>
       </c>
       <c r="E36" t="n">
-        <v>328.42499290157</v>
+        <v>328.4249929015701</v>
       </c>
       <c r="F36" t="n">
-        <v>181.890434928455</v>
+        <v>181.8904349284551</v>
       </c>
       <c r="G36" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="H36" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I36" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J36" t="n">
-        <v>90.32494691182518</v>
+        <v>184.5816154944073</v>
       </c>
       <c r="K36" t="n">
-        <v>456.062569330722</v>
+        <v>550.3192379133042</v>
       </c>
       <c r="L36" t="n">
-        <v>1008.958489259551</v>
+        <v>736.3710605178667</v>
       </c>
       <c r="M36" t="n">
-        <v>1245.429058913801</v>
+        <v>972.8416301721167</v>
       </c>
       <c r="N36" t="n">
-        <v>1502.566945822406</v>
+        <v>1229.979517080722</v>
       </c>
       <c r="O36" t="n">
-        <v>1715.578081181245</v>
+        <v>1507.601566322757</v>
       </c>
       <c r="P36" t="n">
-        <v>2182.483371410393</v>
+        <v>1974.506856551905</v>
       </c>
       <c r="Q36" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="R36" t="n">
-        <v>2227.055228925052</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="S36" t="n">
-        <v>2081.849832166335</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="T36" t="n">
-        <v>1885.785263503749</v>
+        <v>2112.390181809238</v>
       </c>
       <c r="U36" t="n">
-        <v>1735.332078138651</v>
+        <v>1884.266487799903</v>
       </c>
       <c r="V36" t="n">
-        <v>1500.179969906909</v>
+        <v>1649.11437956816</v>
       </c>
       <c r="W36" t="n">
-        <v>1245.942613178707</v>
+        <v>1394.877022839958</v>
       </c>
       <c r="X36" t="n">
-        <v>1038.091112973174</v>
+        <v>1187.025522634426</v>
       </c>
       <c r="Y36" t="n">
-        <v>830.3308142082205</v>
+        <v>979.2652238694718</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.0929644146045</v>
+        <v>199.0713345859742</v>
       </c>
       <c r="C37" t="n">
-        <v>213.0929644146045</v>
+        <v>199.0713345859742</v>
       </c>
       <c r="D37" t="n">
-        <v>213.0929644146045</v>
+        <v>48.95469517363846</v>
       </c>
       <c r="E37" t="n">
-        <v>213.0929644146045</v>
+        <v>48.95469517363846</v>
       </c>
       <c r="F37" t="n">
-        <v>213.0929644146045</v>
+        <v>48.95469517363846</v>
       </c>
       <c r="G37" t="n">
-        <v>44.678458176067</v>
+        <v>48.95469517363846</v>
       </c>
       <c r="H37" t="n">
-        <v>44.678458176067</v>
+        <v>48.95469517363846</v>
       </c>
       <c r="I37" t="n">
-        <v>44.678458176067</v>
+        <v>48.95469517363846</v>
       </c>
       <c r="J37" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="K37" t="n">
         <v>167.6279645973488</v>
@@ -7117,28 +7117,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R37" t="n">
-        <v>1096.338858258427</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="S37" t="n">
-        <v>892.2505136433193</v>
+        <v>1014.080224587306</v>
       </c>
       <c r="T37" t="n">
-        <v>849.4327779320882</v>
+        <v>935.1278584323418</v>
       </c>
       <c r="U37" t="n">
-        <v>742.2807426001657</v>
+        <v>827.9758231004191</v>
       </c>
       <c r="V37" t="n">
-        <v>587.3129647231624</v>
+        <v>573.2913348945323</v>
       </c>
       <c r="W37" t="n">
-        <v>297.8957946862017</v>
+        <v>283.8741648575717</v>
       </c>
       <c r="X37" t="n">
-        <v>251.8958936731595</v>
+        <v>237.8742638445293</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.0929644146045</v>
+        <v>199.0713345859742</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>1207.233734962952</v>
       </c>
       <c r="C38" t="n">
-        <v>1020.260867907515</v>
+        <v>1020.260867907516</v>
       </c>
       <c r="D38" t="n">
-        <v>843.9848191857398</v>
+        <v>843.9848191857404</v>
       </c>
       <c r="E38" t="n">
-        <v>640.1862164724706</v>
+        <v>640.1862164724712</v>
       </c>
       <c r="F38" t="n">
-        <v>411.1899615678382</v>
+        <v>411.1899615678387</v>
       </c>
       <c r="G38" t="n">
-        <v>176.5206159745147</v>
+        <v>176.5206159745148</v>
       </c>
       <c r="H38" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I38" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J38" t="n">
         <v>268.9868424400233</v>
@@ -7181,43 +7181,43 @@
         <v>610.6556105933525</v>
       </c>
       <c r="M38" t="n">
-        <v>1163.551530522182</v>
+        <v>943.3182021801572</v>
       </c>
       <c r="N38" t="n">
-        <v>1716.447450451011</v>
+        <v>1212.639286683325</v>
       </c>
       <c r="O38" t="n">
-        <v>1982.388850328466</v>
+        <v>1453.616288485394</v>
       </c>
       <c r="P38" t="n">
-        <v>2153.556145307599</v>
+        <v>1943.364304554294</v>
       </c>
       <c r="Q38" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="R38" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="S38" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="T38" t="n">
-        <v>2202.989708919826</v>
+        <v>2202.989708919827</v>
       </c>
       <c r="U38" t="n">
-        <v>2131.321958452774</v>
+        <v>2131.321958452775</v>
       </c>
       <c r="V38" t="n">
-        <v>1982.248720994179</v>
+        <v>1982.24872099418</v>
       </c>
       <c r="W38" t="n">
-        <v>1811.46971560904</v>
+        <v>1811.469715609041</v>
       </c>
       <c r="X38" t="n">
-        <v>1619.993607232935</v>
+        <v>1619.993607232936</v>
       </c>
       <c r="Y38" t="n">
-        <v>1411.843925142098</v>
+        <v>1411.843925142099</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>801.2215200126733</v>
+        <v>909.7501419140955</v>
       </c>
       <c r="C39" t="n">
-        <v>626.7684907315463</v>
+        <v>735.2971126329685</v>
       </c>
       <c r="D39" t="n">
-        <v>477.8340810702951</v>
+        <v>586.3627029717172</v>
       </c>
       <c r="E39" t="n">
-        <v>318.5966260648396</v>
+        <v>427.1252479662617</v>
       </c>
       <c r="F39" t="n">
-        <v>318.5966260648396</v>
+        <v>280.5906899931466</v>
       </c>
       <c r="G39" t="n">
-        <v>181.3846493124516</v>
+        <v>143.3787132407586</v>
       </c>
       <c r="H39" t="n">
-        <v>82.68439424776003</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I39" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J39" t="n">
-        <v>59.75149050740255</v>
+        <v>184.5816154944073</v>
       </c>
       <c r="K39" t="n">
-        <v>163.6685282838466</v>
+        <v>550.3192379133042</v>
       </c>
       <c r="L39" t="n">
-        <v>349.720350888409</v>
+        <v>800.9819744010625</v>
       </c>
       <c r="M39" t="n">
-        <v>902.6162708172383</v>
+        <v>1037.452544055313</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.754157725843</v>
+        <v>1294.590430963917</v>
       </c>
       <c r="O39" t="n">
-        <v>1507.601566322755</v>
+        <v>1507.601566322757</v>
       </c>
       <c r="P39" t="n">
-        <v>1974.506856551903</v>
+        <v>1974.506856551905</v>
       </c>
       <c r="Q39" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="R39" t="n">
-        <v>2227.055228925052</v>
+        <v>2227.055228925054</v>
       </c>
       <c r="S39" t="n">
-        <v>2130.411046615025</v>
+        <v>2227.055228925054</v>
       </c>
       <c r="T39" t="n">
-        <v>1934.346477952439</v>
+        <v>2211.090436873929</v>
       </c>
       <c r="U39" t="n">
-        <v>1706.222783943104</v>
+        <v>1982.966742864594</v>
       </c>
       <c r="V39" t="n">
-        <v>1471.070675711362</v>
+        <v>1747.814634632852</v>
       </c>
       <c r="W39" t="n">
-        <v>1216.83331898316</v>
+        <v>1493.57727790465</v>
       </c>
       <c r="X39" t="n">
-        <v>1008.981818777627</v>
+        <v>1285.725777699117</v>
       </c>
       <c r="Y39" t="n">
-        <v>801.2215200126733</v>
+        <v>1077.965478934163</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>486.2133641939163</v>
+        <v>191.5684056739774</v>
       </c>
       <c r="C40" t="n">
-        <v>486.2133641939163</v>
+        <v>191.5684056739774</v>
       </c>
       <c r="D40" t="n">
-        <v>336.0967247815805</v>
+        <v>191.5684056739774</v>
       </c>
       <c r="E40" t="n">
-        <v>336.0967247815805</v>
+        <v>191.5684056739774</v>
       </c>
       <c r="F40" t="n">
-        <v>336.0967247815805</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="G40" t="n">
-        <v>167.682218543043</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="H40" t="n">
-        <v>167.682218543043</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I40" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J40" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="K40" t="n">
         <v>167.6279645973488</v>
@@ -7354,28 +7354,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R40" t="n">
-        <v>1104.855483541936</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="S40" t="n">
-        <v>1082.756788811804</v>
+        <v>1152.432315116551</v>
       </c>
       <c r="T40" t="n">
-        <v>1039.939053100573</v>
+        <v>1109.61457940532</v>
       </c>
       <c r="U40" t="n">
-        <v>932.7870177686505</v>
+        <v>820.4728941884222</v>
       </c>
       <c r="V40" t="n">
-        <v>860.0921794477387</v>
+        <v>565.7884059825353</v>
       </c>
       <c r="W40" t="n">
-        <v>752.6646592957532</v>
+        <v>276.3712359455748</v>
       </c>
       <c r="X40" t="n">
-        <v>706.664758282711</v>
+        <v>230.3713349325324</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.861829024156</v>
+        <v>191.5684056739774</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>843.9848191857388</v>
       </c>
       <c r="E41" t="n">
-        <v>640.1862164724699</v>
+        <v>640.1862164724698</v>
       </c>
       <c r="F41" t="n">
-        <v>411.1899615678375</v>
+        <v>411.1899615678373</v>
       </c>
       <c r="G41" t="n">
-        <v>176.5206159745147</v>
+        <v>176.5206159745148</v>
       </c>
       <c r="H41" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I41" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J41" t="n">
         <v>268.9868424400233</v>
@@ -7424,25 +7424,25 @@
         <v>1140.468934451835</v>
       </c>
       <c r="O41" t="n">
-        <v>1427.217543448214</v>
+        <v>1427.217543448215</v>
       </c>
       <c r="P41" t="n">
-        <v>1916.965559517115</v>
+        <v>1916.965559517116</v>
       </c>
       <c r="Q41" t="n">
-        <v>2207.524163766172</v>
+        <v>2207.524163766173</v>
       </c>
       <c r="R41" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S41" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T41" t="n">
-        <v>2202.989708919825</v>
+        <v>2202.989708919826</v>
       </c>
       <c r="U41" t="n">
-        <v>2131.321958452773</v>
+        <v>2131.321958452774</v>
       </c>
       <c r="V41" t="n">
         <v>1982.248720994178</v>
@@ -7454,7 +7454,7 @@
         <v>1619.993607232934</v>
       </c>
       <c r="Y41" t="n">
-        <v>1411.843925142097</v>
+        <v>1411.843925142098</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>766.4346184288902</v>
+        <v>947.7560779857885</v>
       </c>
       <c r="C42" t="n">
-        <v>591.9815891477632</v>
+        <v>773.3030487046615</v>
       </c>
       <c r="D42" t="n">
-        <v>443.0471794865119</v>
+        <v>624.3686390434102</v>
       </c>
       <c r="E42" t="n">
-        <v>443.0471794865119</v>
+        <v>465.1311840379547</v>
       </c>
       <c r="F42" t="n">
-        <v>296.5126215133969</v>
+        <v>318.5966260648397</v>
       </c>
       <c r="G42" t="n">
         <v>181.3846493124516</v>
       </c>
       <c r="H42" t="n">
-        <v>82.68439424776003</v>
+        <v>82.68439424776005</v>
       </c>
       <c r="I42" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J42" t="n">
-        <v>59.75149050740254</v>
+        <v>184.5816154944073</v>
       </c>
       <c r="K42" t="n">
-        <v>163.6685282838466</v>
+        <v>550.3192379133041</v>
       </c>
       <c r="L42" t="n">
-        <v>480.6172977643843</v>
+        <v>1103.215157842134</v>
       </c>
       <c r="M42" t="n">
-        <v>717.0878674186342</v>
+        <v>1339.685727496384</v>
       </c>
       <c r="N42" t="n">
-        <v>1269.983787347463</v>
+        <v>1596.823614404988</v>
       </c>
       <c r="O42" t="n">
-        <v>1822.879707276292</v>
+        <v>1809.834749763828</v>
       </c>
       <c r="P42" t="n">
-        <v>1974.506856551903</v>
+        <v>1974.506856551904</v>
       </c>
       <c r="Q42" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R42" t="n">
-        <v>2227.055228925051</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S42" t="n">
-        <v>2081.849832166335</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="T42" t="n">
-        <v>1885.785263503749</v>
+        <v>2030.990660262467</v>
       </c>
       <c r="U42" t="n">
-        <v>1839.651219379389</v>
+        <v>1984.856616138107</v>
       </c>
       <c r="V42" t="n">
-        <v>1604.499111147647</v>
+        <v>1785.820570704545</v>
       </c>
       <c r="W42" t="n">
-        <v>1350.261754419445</v>
+        <v>1531.583213976343</v>
       </c>
       <c r="X42" t="n">
-        <v>1142.410254213912</v>
+        <v>1323.73171377081</v>
       </c>
       <c r="Y42" t="n">
-        <v>934.6499554489583</v>
+        <v>1115.971415005856</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.5471500844432</v>
+        <v>192.5915517584601</v>
       </c>
       <c r="C43" t="n">
-        <v>235.5471500844432</v>
+        <v>192.5915517584601</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5471500844432</v>
+        <v>192.5915517584601</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5471500844432</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="F43" t="n">
-        <v>163.4059815454715</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="G43" t="n">
-        <v>163.4059815454715</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H43" t="n">
-        <v>163.4059815454715</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I43" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J43" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K43" t="n">
         <v>167.6279645973488</v>
@@ -7600,19 +7600,19 @@
         <v>1153.25213876105</v>
       </c>
       <c r="U43" t="n">
-        <v>1046.100103429128</v>
+        <v>1003.144505103145</v>
       </c>
       <c r="V43" t="n">
-        <v>973.4052651082158</v>
+        <v>748.4600168972579</v>
       </c>
       <c r="W43" t="n">
-        <v>683.9880950712552</v>
+        <v>459.0428468602972</v>
       </c>
       <c r="X43" t="n">
-        <v>455.9985441732379</v>
+        <v>413.0429458472549</v>
       </c>
       <c r="Y43" t="n">
-        <v>417.1956149146829</v>
+        <v>374.2400165886999</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1207.23373496295</v>
+        <v>1207.233734962951</v>
       </c>
       <c r="C44" t="n">
-        <v>1020.260867907514</v>
+        <v>1020.260867907515</v>
       </c>
       <c r="D44" t="n">
-        <v>843.9848191857386</v>
+        <v>843.9848191857393</v>
       </c>
       <c r="E44" t="n">
-        <v>640.1862164724697</v>
+        <v>640.1862164724703</v>
       </c>
       <c r="F44" t="n">
-        <v>411.1899615678373</v>
+        <v>411.1899615678377</v>
       </c>
       <c r="G44" t="n">
-        <v>176.5206159745147</v>
+        <v>176.5206159745148</v>
       </c>
       <c r="H44" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I44" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J44" t="n">
         <v>268.9868424400233</v>
       </c>
       <c r="K44" t="n">
-        <v>695.9771439154615</v>
+        <v>405.0078103037383</v>
       </c>
       <c r="L44" t="n">
-        <v>901.6249442050758</v>
+        <v>610.6556105933525</v>
       </c>
       <c r="M44" t="n">
-        <v>1162.11718356039</v>
+        <v>871.1478499486672</v>
       </c>
       <c r="N44" t="n">
-        <v>1715.013103489219</v>
+        <v>1140.468934451835</v>
       </c>
       <c r="O44" t="n">
-        <v>1955.990105291288</v>
+        <v>1453.616288485393</v>
       </c>
       <c r="P44" t="n">
-        <v>2127.157400270421</v>
+        <v>1943.364304554294</v>
       </c>
       <c r="Q44" t="n">
-        <v>2207.524163766172</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R44" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S44" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T44" t="n">
-        <v>2202.989708919825</v>
+        <v>2202.989708919826</v>
       </c>
       <c r="U44" t="n">
-        <v>2131.321958452773</v>
+        <v>2131.321958452774</v>
       </c>
       <c r="V44" t="n">
-        <v>1982.248720994177</v>
+        <v>1982.248720994178</v>
       </c>
       <c r="W44" t="n">
-        <v>1811.469715609038</v>
+        <v>1811.469715609039</v>
       </c>
       <c r="X44" t="n">
         <v>1619.993607232934</v>
       </c>
       <c r="Y44" t="n">
-        <v>1411.843925142097</v>
+        <v>1411.843925142098</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>584.4449685439154</v>
+        <v>673.8379100970158</v>
       </c>
       <c r="C45" t="n">
-        <v>409.9919392627884</v>
+        <v>499.3848808158888</v>
       </c>
       <c r="D45" t="n">
-        <v>261.0575296015371</v>
+        <v>350.4504711546375</v>
       </c>
       <c r="E45" t="n">
-        <v>181.890434928455</v>
+        <v>191.213016149182</v>
       </c>
       <c r="F45" t="n">
-        <v>181.890434928455</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="G45" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H45" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I45" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J45" t="n">
-        <v>59.75149050740254</v>
+        <v>184.5816154944073</v>
       </c>
       <c r="K45" t="n">
-        <v>425.4891129262994</v>
+        <v>550.3192379133041</v>
       </c>
       <c r="L45" t="n">
-        <v>611.5409355308618</v>
+        <v>736.3710605178666</v>
       </c>
       <c r="M45" t="n">
-        <v>848.0115051851118</v>
+        <v>972.8416301721165</v>
       </c>
       <c r="N45" t="n">
-        <v>1105.149392093716</v>
+        <v>1269.983787347464</v>
       </c>
       <c r="O45" t="n">
-        <v>1658.045312022546</v>
+        <v>1822.879707276294</v>
       </c>
       <c r="P45" t="n">
-        <v>1974.506856551903</v>
+        <v>1974.506856551904</v>
       </c>
       <c r="Q45" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R45" t="n">
-        <v>2227.055228925052</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S45" t="n">
-        <v>2081.849832166335</v>
+        <v>2171.242773719436</v>
       </c>
       <c r="T45" t="n">
-        <v>1885.785263503749</v>
+        <v>1975.17820505685</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.661569494414</v>
+        <v>1747.054511047515</v>
       </c>
       <c r="V45" t="n">
-        <v>1422.509461262672</v>
+        <v>1511.902402815772</v>
       </c>
       <c r="W45" t="n">
-        <v>1168.27210453447</v>
+        <v>1257.665046087571</v>
       </c>
       <c r="X45" t="n">
-        <v>960.4206043289373</v>
+        <v>1049.813545882038</v>
       </c>
       <c r="Y45" t="n">
-        <v>752.6603055639835</v>
+        <v>842.0532471170839</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>370.4354547179135</v>
+        <v>48.95469517363844</v>
       </c>
       <c r="C46" t="n">
-        <v>201.4992717900066</v>
+        <v>48.95469517363844</v>
       </c>
       <c r="D46" t="n">
-        <v>201.4992717900066</v>
+        <v>48.95469517363844</v>
       </c>
       <c r="E46" t="n">
-        <v>201.4992717900066</v>
+        <v>48.95469517363844</v>
       </c>
       <c r="F46" t="n">
-        <v>201.4992717900066</v>
+        <v>48.95469517363844</v>
       </c>
       <c r="G46" t="n">
-        <v>201.4992717900066</v>
+        <v>48.95469517363844</v>
       </c>
       <c r="H46" t="n">
-        <v>48.95469517363842</v>
+        <v>48.95469517363844</v>
       </c>
       <c r="I46" t="n">
-        <v>48.95469517363842</v>
+        <v>48.95469517363844</v>
       </c>
       <c r="J46" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K46" t="n">
         <v>167.6279645973488</v>
@@ -7828,28 +7828,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R46" t="n">
-        <v>1218.168569202413</v>
+        <v>1096.338858258427</v>
       </c>
       <c r="S46" t="n">
-        <v>1196.069874472281</v>
+        <v>1009.818604616212</v>
       </c>
       <c r="T46" t="n">
-        <v>1153.25213876105</v>
+        <v>967.000868904981</v>
       </c>
       <c r="U46" t="n">
-        <v>1046.100103429128</v>
+        <v>677.8591836880832</v>
       </c>
       <c r="V46" t="n">
-        <v>973.4052651082158</v>
+        <v>423.1746954821964</v>
       </c>
       <c r="W46" t="n">
-        <v>683.9880950712552</v>
+        <v>133.7575254452358</v>
       </c>
       <c r="X46" t="n">
-        <v>455.9985441732379</v>
+        <v>87.7576244321935</v>
       </c>
       <c r="Y46" t="n">
-        <v>417.1956149146829</v>
+        <v>48.95469517363844</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>208.2502184139039</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>105.5120170184932</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>102.7382013954119</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>123.6142794301137</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.63593898379139</v>
+        <v>82.1591830734952</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-3.623767952376511e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>174.5423067530303</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>33.70791166087486</v>
+        <v>82.1591830734954</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9480,16 +9480,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>208.2502184139042</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>105.5120170184932</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>102.7382013954119</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>25.43937969142803</v>
+        <v>214.7934987381722</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>22.96087161316152</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>39.05102084553056</v>
@@ -9717,13 +9717,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>52.26791276054504</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>183.659388268843</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>181.5393517526599</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>21.91184805137833</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,13 +9881,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>358.8755095213755</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>40.25286293200542</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>61.40412270165945</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>177.5720700197031</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>339.1897996598418</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.38214872838938</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>61.40412270165956</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>78.45859120061778</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>353.6885896064457</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>39.05102084553056</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>61.40412270165956</v>
       </c>
       <c r="P33" t="n">
-        <v>141.8281216277598</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>295.3572531045601</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>286.4392277026878</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>25.21656371251126</v>
+        <v>43.88724226123958</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>39.05102084553056</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>30.88227919638651</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.5495932568349</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>65.2635493769655</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,19 +10829,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>295.3572531045602</v>
+        <v>72.89934568837378</v>
       </c>
       <c r="N38" t="n">
-        <v>286.439227702688</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>25.21656371251143</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>39.05102084553056</v>
@@ -10899,22 +10899,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>65.26354937696553</v>
       </c>
       <c r="M39" t="n">
-        <v>319.6215659339184</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>136.1982557960333</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>46.23394666091971</v>
+        <v>46.23394666092113</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>132.2191382585608</v>
+        <v>370.5495932568352</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>298.7454878992164</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>343.3179642121107</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>13.17672476006638</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>293.9084177896194</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>286.4392277026879</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>72.89934568837302</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>40.40835380479103</v>
       </c>
       <c r="O45" t="n">
-        <v>343.3179642121108</v>
+        <v>343.317964212111</v>
       </c>
       <c r="P45" t="n">
-        <v>166.499389145199</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.9879130210782</v>
+        <v>239.9879130210783</v>
       </c>
       <c r="C11" t="n">
-        <v>222.5269631286051</v>
+        <v>222.5269631286053</v>
       </c>
       <c r="D11" t="n">
-        <v>62.65798280752011</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>239.1844414298594</v>
+        <v>239.1844414298595</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>167.9475609641862</v>
+        <v>5.854072420442776</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.233700684801533</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>108.3748977061045</v>
+        <v>108.3748977061046</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4950400750106</v>
+        <v>206.4950400750107</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.9851720360668</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.9879130210782</v>
+        <v>165.8109506412449</v>
       </c>
       <c r="C14" t="n">
-        <v>196.0557007425432</v>
+        <v>222.5269631286052</v>
       </c>
       <c r="D14" t="n">
-        <v>211.9371129782805</v>
+        <v>211.9371129782807</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>167.9475609641862</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.233700684801647</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>68.04769262841239</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>108.3748977061046</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4950400750106</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9851720360666</v>
+        <v>226.9851720360667</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>243.4920100136513</v>
       </c>
     </row>
     <row r="15">
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>185.2881130890914</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>89.10555695396862</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>29.53289369588687</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>18.20205159636163</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>143.9175014273735</v>
       </c>
     </row>
     <row r="18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>133.0951089680629</v>
+        <v>16.2644653625802</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>89.10555695396853</v>
+        <v>89.10555695396863</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>127.6530360647931</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.82239245930825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>686817.4290827474</v>
+        <v>686817.4290827473</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>686817.4290827475</v>
+        <v>686817.4290827474</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761653.8891356675</v>
+        <v>761653.8891356671</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761653.8891356675</v>
+        <v>761653.8891356671</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>891056.9468159478</v>
+        <v>891056.9468159479</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>891056.9468159478</v>
+        <v>891056.9468159479</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>826154.0661654873</v>
+        <v>826154.0661654874</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>826154.0661654873</v>
+        <v>826154.0661654874</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>675902.9794415568</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.979441557</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="D2" t="n">
-        <v>675902.9794415571</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="E2" t="n">
-        <v>595310.8039550398</v>
+        <v>595310.8039550402</v>
       </c>
       <c r="F2" t="n">
-        <v>595310.8039550403</v>
+        <v>595310.8039550401</v>
       </c>
       <c r="G2" t="n">
+        <v>662056.8358941311</v>
+      </c>
+      <c r="H2" t="n">
         <v>662056.8358941312</v>
       </c>
-      <c r="H2" t="n">
-        <v>662056.8358941313</v>
-      </c>
       <c r="I2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="J2" t="n">
-        <v>677359.4601380328</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="K2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380324</v>
+        <v>677359.4601380327</v>
       </c>
       <c r="M2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="N2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="O2" t="n">
         <v>677359.460138034</v>
       </c>
-      <c r="N2" t="n">
-        <v>677359.4601380343</v>
-      </c>
-      <c r="O2" t="n">
-        <v>677359.4601380338</v>
-      </c>
       <c r="P2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>784058.3397149075</v>
+        <v>784058.3397149072</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.021374298698698e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>63073.60320817409</v>
+        <v>63073.60320817411</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15967.25538750373</v>
+        <v>15967.25538750388</v>
       </c>
       <c r="J3" t="n">
-        <v>130412.6889307354</v>
+        <v>130412.6889307353</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63073.60320817412</v>
+        <v>63073.60320817411</v>
       </c>
       <c r="M3" t="n">
-        <v>81062.19950072617</v>
+        <v>81062.1995007261</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>167950.8937375128</v>
+        <v>167950.8937375127</v>
       </c>
       <c r="F4" t="n">
         <v>167950.8937375127</v>
       </c>
       <c r="G4" t="n">
-        <v>214128.3936837615</v>
+        <v>214128.3936837614</v>
       </c>
       <c r="H4" t="n">
         <v>214128.3936837615</v>
@@ -26439,10 +26439,10 @@
         <v>223035.6392071028</v>
       </c>
       <c r="J4" t="n">
-        <v>211908.666820539</v>
+        <v>211908.6668205391</v>
       </c>
       <c r="K4" t="n">
-        <v>211908.666820539</v>
+        <v>211908.6668205391</v>
       </c>
       <c r="L4" t="n">
         <v>211908.6668205391</v>
@@ -26457,7 +26457,7 @@
         <v>219232.2264290235</v>
       </c>
       <c r="P4" t="n">
-        <v>219232.2264290235</v>
+        <v>219232.2264290236</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>49278.62047697523</v>
+        <v>49278.62047697519</v>
       </c>
       <c r="F5" t="n">
-        <v>49278.62047697523</v>
+        <v>49278.6204769752</v>
       </c>
       <c r="G5" t="n">
-        <v>55906.78891211021</v>
+        <v>55906.78891211019</v>
       </c>
       <c r="H5" t="n">
-        <v>55906.78891211021</v>
+        <v>55906.78891211019</v>
       </c>
       <c r="I5" t="n">
-        <v>59557.53152950495</v>
+        <v>59557.53152950497</v>
       </c>
       <c r="J5" t="n">
-        <v>77861.909650883</v>
+        <v>77861.90965088298</v>
       </c>
       <c r="K5" t="n">
         <v>77861.909650883</v>
@@ -26500,16 +26500,16 @@
         <v>77861.909650883</v>
       </c>
       <c r="M5" t="n">
-        <v>64342.04701878659</v>
+        <v>64342.04701878661</v>
       </c>
       <c r="N5" t="n">
+        <v>64342.04701878662</v>
+      </c>
+      <c r="O5" t="n">
         <v>64342.0470187866</v>
       </c>
-      <c r="O5" t="n">
-        <v>64342.04701878659</v>
-      </c>
       <c r="P5" t="n">
-        <v>64342.04701878659</v>
+        <v>64342.0470187866</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189875.3888925917</v>
+        <v>189870.9753147236</v>
       </c>
       <c r="C6" t="n">
-        <v>189875.3888925918</v>
+        <v>189870.9753147234</v>
       </c>
       <c r="D6" t="n">
-        <v>189875.3888925919</v>
+        <v>189870.9753147234</v>
       </c>
       <c r="E6" t="n">
-        <v>-405977.0499743556</v>
+        <v>-406225.6822658185</v>
       </c>
       <c r="F6" t="n">
-        <v>378081.2897405523</v>
+        <v>377832.6574490886</v>
       </c>
       <c r="G6" t="n">
-        <v>328948.0500900854</v>
+        <v>328901.6785014674</v>
       </c>
       <c r="H6" t="n">
-        <v>392021.6532982597</v>
+        <v>391975.2817096416</v>
       </c>
       <c r="I6" t="n">
-        <v>378799.0340139223</v>
+        <v>378799.0340139224</v>
       </c>
       <c r="J6" t="n">
-        <v>257176.1947358753</v>
+        <v>257176.1947358763</v>
       </c>
       <c r="K6" t="n">
-        <v>387588.8836666115</v>
+        <v>387588.8836666113</v>
       </c>
       <c r="L6" t="n">
-        <v>324515.2804584363</v>
+        <v>324515.2804584365</v>
       </c>
       <c r="M6" t="n">
-        <v>312722.9871894976</v>
+        <v>312722.9871894979</v>
       </c>
       <c r="N6" t="n">
-        <v>393785.1866902242</v>
+        <v>393785.1866902239</v>
       </c>
       <c r="O6" t="n">
-        <v>393785.1866902237</v>
+        <v>393785.1866902238</v>
       </c>
       <c r="P6" t="n">
-        <v>393785.1866902238</v>
+        <v>393785.1866902239</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F2" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G2" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="H2" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="I2" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="J2" t="n">
+        <v>78.84200401021765</v>
+      </c>
+      <c r="K2" t="n">
         <v>78.84200401021759</v>
       </c>
-      <c r="K2" t="n">
-        <v>78.84200401021761</v>
-      </c>
       <c r="L2" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="M2" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="N2" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="O2" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="3">
@@ -26759,7 +26759,7 @@
         <v>699.0700829154817</v>
       </c>
       <c r="J3" t="n">
-        <v>699.0700829154817</v>
+        <v>699.0700829154816</v>
       </c>
       <c r="K3" t="n">
         <v>699.0700829154817</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="F4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="H4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="I4" t="n">
-        <v>422.5185495357621</v>
+        <v>422.5185495357625</v>
       </c>
       <c r="J4" t="n">
-        <v>920.9541678978702</v>
+        <v>920.9541678978701</v>
       </c>
       <c r="K4" t="n">
-        <v>920.9541678978702</v>
+        <v>920.9541678978704</v>
       </c>
       <c r="L4" t="n">
-        <v>920.9541678978702</v>
+        <v>920.9541678978704</v>
       </c>
       <c r="M4" t="n">
-        <v>558.4807272008375</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="N4" t="n">
-        <v>558.4807272008376</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="O4" t="n">
-        <v>558.4807272008374</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="P4" t="n">
-        <v>558.4807272008375</v>
+        <v>558.4807272008377</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="M2" t="n">
-        <v>101.3277493759077</v>
+        <v>101.3277493759076</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.04510883872928</v>
+        <v>60.04510883872985</v>
       </c>
       <c r="J4" t="n">
-        <v>498.4356183621081</v>
+        <v>498.4356183621076</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="D11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="H11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="I11" t="n">
         <v>102.1305654634748</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="Y11" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>121.7293716524694</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H12" t="n">
         <v>97.71325251404465</v>
       </c>
       <c r="I12" t="n">
-        <v>37.62587671097609</v>
+        <v>23.51539137858295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,22 +28217,22 @@
         <v>6.799003079515174</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T12" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U12" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W12" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X12" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,25 +28245,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="D13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G13" t="n">
-        <v>67.15034368760539</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="I13" t="n">
         <v>117.5402481357105</v>
@@ -28296,25 +28296,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>142.7459286424024</v>
+        <v>67.15034368760664</v>
       </c>
       <c r="U13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="V13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X13" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="D14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="H14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="I14" t="n">
         <v>102.1305654634748</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="Y14" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>128.5283747319841</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E15" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H15" t="n">
-        <v>97.71325251404465</v>
+        <v>83.60276718165126</v>
       </c>
       <c r="I15" t="n">
         <v>37.62587671097609</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S15" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="V15" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="D16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="F16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="H16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="I16" t="n">
         <v>117.5402481357105</v>
@@ -28533,25 +28533,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>142.7459286424024</v>
+        <v>67.15034368760629</v>
       </c>
       <c r="V16" t="n">
-        <v>67.15034368760533</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X16" t="n">
-        <v>142.7459286424024</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="C17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="D17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="E17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="F17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="G17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="H17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="I17" t="n">
         <v>102.1305654634748</v>
@@ -28618,19 +28618,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="V17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="W17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="X17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>135.8398569848641</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I18" t="n">
         <v>37.62587671097609</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T18" t="n">
         <v>194.10392297596</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="V18" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="W18" t="n">
-        <v>152.7040022952063</v>
+        <v>61.33195544969058</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28722,25 +28722,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>98.64806488513159</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>151.0191308502045</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J19" t="n">
         <v>4.233474627595712</v>
@@ -28770,25 +28770,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S19" t="n">
-        <v>202.0474611689562</v>
+        <v>182.447672301146</v>
       </c>
       <c r="T19" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="U19" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="C20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="D20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="E20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="F20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="G20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="H20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="I20" t="n">
         <v>102.1305654634748</v>
@@ -28855,19 +28855,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="V20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="W20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="X20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,7 +28889,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.8398569848641</v>
@@ -28928,13 +28928,13 @@
         <v>6.799003079515174</v>
       </c>
       <c r="S21" t="n">
-        <v>112.2248883250384</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T21" t="n">
         <v>194.10392297596</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>201.7935279061457</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -28971,13 +28971,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>151.0191308502045</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J22" t="n">
         <v>4.233474627595712</v>
@@ -29007,25 +29007,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S22" t="n">
-        <v>183.5944578825983</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T22" t="n">
-        <v>221.58793265262</v>
+        <v>69.48978292424169</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="V22" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="W22" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="X22" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="C23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="D23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="E23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="F23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="G23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="H23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="I23" t="n">
         <v>102.1305654634748</v>
@@ -29092,19 +29092,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="V23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="W23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="X23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526199</v>
       </c>
     </row>
     <row r="24">
@@ -29120,22 +29120,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>90.50686512523225</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H24" t="n">
         <v>97.71325251404465</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,16 +29165,16 @@
         <v>6.799003079515174</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T24" t="n">
         <v>194.10392297596</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>49.89682972096776</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,16 +29193,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29211,7 +29211,7 @@
         <v>166.7303611761521</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>117.5402481357105</v>
@@ -29244,25 +29244,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S25" t="n">
-        <v>202.0474611689562</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.58793265262</v>
+        <v>198.1440948336792</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="X25" t="n">
-        <v>184.8861702505077</v>
+        <v>221.5879326526199</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="C26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="D26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="E26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="F26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="G26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="H26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="I26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="T26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="U26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="V26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="W26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="X26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="C28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="D28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="E28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="F28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="G28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="H28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="I28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="J28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="K28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="L28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="M28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="N28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="O28" t="n">
-        <v>78.84200401021795</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="P28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="R28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="S28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="T28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="U28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="V28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="W28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="X28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021765</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="C29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="D29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="E29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="F29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="G29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="H29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="I29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="T29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="U29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="V29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="W29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="X29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="C31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="D31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="E31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="F31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="G31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="H31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="I31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="J31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="K31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="L31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="N31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="O31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="P31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="R31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="S31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="T31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="U31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="V31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="W31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="X31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021759</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="C32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="D32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="E32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="F32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="G32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="H32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="I32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="T32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="U32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="V32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="W32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="X32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="C34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="D34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="E34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="F34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="G34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="H34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="I34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="J34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="K34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="L34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="N34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="O34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="P34" t="n">
-        <v>78.84200401021653</v>
+        <v>78.84200401021815</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="R34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="S34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="T34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="U34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="V34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="W34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="X34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021759</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="C35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="D35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="E35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="F35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="G35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="H35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="I35" t="n">
         <v>102.1305654634748</v>
@@ -30037,22 +30037,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="U35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="V35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="W35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="X35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
     </row>
     <row r="36">
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>73.78652325178716</v>
       </c>
       <c r="U36" t="n">
-        <v>76.89380355779463</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30156,7 +30156,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H37" t="n">
         <v>151.0191308502045</v>
@@ -30165,7 +30165,7 @@
         <v>117.5402481357105</v>
       </c>
       <c r="J37" t="n">
-        <v>4.233474627595712</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>180.1697533861254</v>
+        <v>144.3964692468295</v>
       </c>
       <c r="U37" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="V37" t="n">
-        <v>98.71954322559475</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861252</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I38" t="n">
         <v>102.1305654634748</v>
@@ -30274,22 +30274,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y38" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,10 +30350,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>48.07560230420277</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>178.298778845347</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H40" t="n">
         <v>151.0191308502045</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>8.431459030674674</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S40" t="n">
-        <v>180.1697533861254</v>
+        <v>136.9685696239527</v>
       </c>
       <c r="T40" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U40" t="n">
-        <v>180.1697533861254</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>180.1697533861254</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>180.1697533861254</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I41" t="n">
         <v>102.1305654634748</v>
@@ -30511,22 +30511,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="42">
@@ -30545,13 +30545,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>21.8631645059283</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30587,16 +30587,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>35.75490217019859</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30624,10 +30624,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>74.00129116934933</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.7303611761521</v>
@@ -30636,7 +30636,7 @@
         <v>151.0191308502045</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J43" t="n">
         <v>4.233474627595712</v>
@@ -30666,25 +30666,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S43" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="T43" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U43" t="n">
-        <v>180.1697533861254</v>
+        <v>137.6437110434027</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1697533861254</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I44" t="n">
         <v>102.1305654634748</v>
@@ -30748,22 +30748,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="45">
@@ -30782,13 +30782,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>79.26965672904969</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H45" t="n">
         <v>97.71325251404465</v>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>88.49901213756888</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.5394215871356</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30870,7 +30870,7 @@
         <v>166.7303611761521</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I46" t="n">
         <v>117.5402481357105</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>180.1697533861254</v>
+        <v>116.3924100631639</v>
       </c>
       <c r="T46" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U46" t="n">
-        <v>180.1697533861254</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1697533861254</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
   </sheetData>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620024</v>
       </c>
       <c r="H26" t="n">
-        <v>28.78131250917859</v>
+        <v>28.78131250917858</v>
       </c>
       <c r="I26" t="n">
         <v>108.3453241069311</v>
@@ -32950,13 +32950,13 @@
         <v>357.484768079036</v>
       </c>
       <c r="L26" t="n">
-        <v>443.4914657675775</v>
+        <v>443.4914657675774</v>
       </c>
       <c r="M26" t="n">
-        <v>493.4697073235501</v>
+        <v>493.46970732355</v>
       </c>
       <c r="N26" t="n">
-        <v>501.4545630947405</v>
+        <v>501.4545630947404</v>
       </c>
       <c r="O26" t="n">
         <v>473.5093243530688</v>
@@ -32965,19 +32965,19 @@
         <v>404.1292533099494</v>
       </c>
       <c r="Q26" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600571</v>
       </c>
       <c r="R26" t="n">
-        <v>176.5345169686016</v>
+        <v>176.5345169686015</v>
       </c>
       <c r="S26" t="n">
-        <v>64.04044025904139</v>
+        <v>64.04044025904138</v>
       </c>
       <c r="T26" t="n">
-        <v>12.30222829331667</v>
+        <v>12.30222829331666</v>
       </c>
       <c r="U26" t="n">
-        <v>0.224826559329602</v>
+        <v>0.2248265593296019</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33029,13 +33029,13 @@
         <v>242.8081437990499</v>
       </c>
       <c r="L27" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238766</v>
       </c>
       <c r="M27" t="n">
-        <v>380.9931951889375</v>
+        <v>380.9931951889374</v>
       </c>
       <c r="N27" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849542</v>
       </c>
       <c r="O27" t="n">
         <v>357.7590074331711</v>
@@ -33047,16 +33047,16 @@
         <v>191.9409027657753</v>
       </c>
       <c r="R27" t="n">
-        <v>93.35883107312796</v>
+        <v>93.35883107312794</v>
       </c>
       <c r="S27" t="n">
-        <v>27.92982831270815</v>
+        <v>27.92982831270814</v>
       </c>
       <c r="T27" t="n">
-        <v>6.06080571886158</v>
+        <v>6.060805718861579</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09892501173332294</v>
+        <v>0.09892501173332291</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I28" t="n">
-        <v>37.91022679154777</v>
+        <v>37.91022679154776</v>
       </c>
       <c r="J28" t="n">
-        <v>89.12570548907706</v>
+        <v>89.12570548907705</v>
       </c>
       <c r="K28" t="n">
         <v>146.4609124534402</v>
@@ -33111,7 +33111,7 @@
         <v>187.4195432131113</v>
       </c>
       <c r="M28" t="n">
-        <v>197.6076301592074</v>
+        <v>197.6076301592073</v>
       </c>
       <c r="N28" t="n">
         <v>192.908962388792</v>
@@ -33132,10 +33132,10 @@
         <v>21.96913686801603</v>
       </c>
       <c r="T28" t="n">
-        <v>5.386277688037317</v>
+        <v>5.386277688037316</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06876099176217861</v>
+        <v>0.06876099176217859</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>15.22528518316722</v>
       </c>
       <c r="K12" t="n">
-        <v>104.9667048246909</v>
+        <v>313.2169232385949</v>
       </c>
       <c r="L12" t="n">
         <v>187.9311339440025</v>
       </c>
       <c r="M12" t="n">
-        <v>344.3711782854123</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N12" t="n">
-        <v>362.4734406970329</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O12" t="n">
         <v>215.1627629887267</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.22528518316722</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K15" t="n">
         <v>104.9667048246909</v>
@@ -35732,7 +35732,7 @@
         <v>187.9311339440025</v>
       </c>
       <c r="M15" t="n">
-        <v>362.4734406970329</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N15" t="n">
         <v>259.7352393016209</v>
@@ -35744,7 +35744,7 @@
         <v>153.1587366420306</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.5950676635452</v>
+        <v>134.118311753249</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.47751034707403</v>
+        <v>57.47751034707367</v>
       </c>
       <c r="K17" t="n">
         <v>137.3949170340555</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.22528518316722</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K18" t="n">
         <v>104.9667048246909</v>
       </c>
       <c r="L18" t="n">
-        <v>362.4734406970329</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M18" t="n">
         <v>238.8591612669192</v>
@@ -35975,7 +35975,7 @@
         <v>259.7352393016209</v>
       </c>
       <c r="O18" t="n">
-        <v>248.8706746496015</v>
+        <v>297.3219460622221</v>
       </c>
       <c r="P18" t="n">
         <v>153.1587366420306</v>
@@ -36200,16 +36200,16 @@
         <v>15.22528518316722</v>
       </c>
       <c r="K21" t="n">
-        <v>104.9667048246909</v>
+        <v>313.2169232385951</v>
       </c>
       <c r="L21" t="n">
         <v>187.9311339440025</v>
       </c>
       <c r="M21" t="n">
-        <v>344.3711782854123</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N21" t="n">
-        <v>362.4734406970329</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O21" t="n">
         <v>215.1627629887267</v>
@@ -36361,7 +36361,7 @@
         <v>137.3949170340555</v>
       </c>
       <c r="L23" t="n">
-        <v>233.1644304890183</v>
+        <v>422.5185495357625</v>
       </c>
       <c r="M23" t="n">
         <v>263.1234740962774</v>
@@ -36370,13 +36370,13 @@
         <v>272.0414994981496</v>
       </c>
       <c r="O23" t="n">
-        <v>243.4111129313821</v>
+        <v>266.3719845445436</v>
       </c>
       <c r="P23" t="n">
         <v>172.8962575546799</v>
       </c>
       <c r="Q23" t="n">
-        <v>293.4935396455124</v>
+        <v>81.1785489856077</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>15.22528518316722</v>
       </c>
       <c r="K24" t="n">
-        <v>157.234617585236</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L24" t="n">
         <v>187.9311339440025</v>
       </c>
       <c r="M24" t="n">
-        <v>422.5185495357621</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N24" t="n">
         <v>259.7352393016209</v>
@@ -36452,10 +36452,10 @@
         <v>215.1627629887267</v>
       </c>
       <c r="P24" t="n">
-        <v>153.1587366420306</v>
+        <v>334.6980883946904</v>
       </c>
       <c r="Q24" t="n">
-        <v>262.0364164156029</v>
+        <v>51.9591286797538</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>226.5741255191478</v>
+        <v>79.38935839845233</v>
       </c>
       <c r="K26" t="n">
         <v>461.5403296052202</v>
       </c>
       <c r="L26" t="n">
-        <v>625.3862653480408</v>
+        <v>625.3862653480405</v>
       </c>
       <c r="M26" t="n">
-        <v>621.9989836176529</v>
+        <v>712.6370075891098</v>
       </c>
       <c r="N26" t="n">
-        <v>272.0414994981496</v>
+        <v>709.3884239101337</v>
       </c>
       <c r="O26" t="n">
-        <v>624.2112941941275</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P26" t="n">
         <v>494.6949657261625</v>
       </c>
       <c r="Q26" t="n">
-        <v>293.4935396455124</v>
+        <v>293.4935396455123</v>
       </c>
       <c r="R26" t="n">
-        <v>26.66539902745188</v>
+        <v>26.66539902745185</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>55.47814811517264</v>
+        <v>141.316320523576</v>
       </c>
       <c r="K27" t="n">
         <v>369.4319418372695</v>
@@ -36680,19 +36680,19 @@
         <v>558.7714792474617</v>
       </c>
       <c r="M27" t="n">
-        <v>704.5642250169191</v>
+        <v>300.2632839685785</v>
       </c>
       <c r="N27" t="n">
         <v>259.7352393016209</v>
       </c>
       <c r="O27" t="n">
-        <v>215.1627629887267</v>
+        <v>215.1627629887266</v>
       </c>
       <c r="P27" t="n">
-        <v>153.1587366420306</v>
+        <v>471.6215052819677</v>
       </c>
       <c r="Q27" t="n">
-        <v>262.0364164156029</v>
+        <v>262.0364164156028</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.60852938262188</v>
+        <v>74.60852938262192</v>
       </c>
       <c r="K28" t="n">
-        <v>203.0334246377749</v>
+        <v>203.033424637775</v>
       </c>
       <c r="L28" t="n">
         <v>293.851572483645</v>
       </c>
       <c r="M28" t="n">
-        <v>316.0335111312655</v>
+        <v>316.0335111312656</v>
       </c>
       <c r="N28" t="n">
         <v>315.8831387782382</v>
       </c>
       <c r="O28" t="n">
-        <v>281.6097819106496</v>
+        <v>281.6097819106493</v>
       </c>
       <c r="P28" t="n">
-        <v>228.5866023424482</v>
+        <v>228.5866023424483</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.23954327876095</v>
+        <v>98.23954327876099</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>226.5741255191478</v>
+        <v>57.47751034707403</v>
       </c>
       <c r="K29" t="n">
-        <v>461.5403296052202</v>
+        <v>314.9669870537586</v>
       </c>
       <c r="L29" t="n">
-        <v>207.7250507975903</v>
+        <v>625.3862653480408</v>
       </c>
       <c r="M29" t="n">
-        <v>602.3132737561192</v>
+        <v>712.6370075891099</v>
       </c>
       <c r="N29" t="n">
         <v>709.3884239101337</v>
@@ -36850,7 +36850,7 @@
         <v>494.6949657261625</v>
       </c>
       <c r="Q29" t="n">
-        <v>293.4935396455124</v>
+        <v>81.1785489856077</v>
       </c>
       <c r="R29" t="n">
         <v>26.66539902745188</v>
@@ -36914,16 +36914,16 @@
         <v>369.4319418372695</v>
       </c>
       <c r="L30" t="n">
-        <v>187.9311339440025</v>
+        <v>558.7714792474617</v>
       </c>
       <c r="M30" t="n">
         <v>238.8591612669192</v>
       </c>
       <c r="N30" t="n">
-        <v>298.1173880300103</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O30" t="n">
-        <v>609.0250822654561</v>
+        <v>276.5668856903862</v>
       </c>
       <c r="P30" t="n">
         <v>471.6215052819678</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.6085293826219</v>
+        <v>74.60852938262188</v>
       </c>
       <c r="K31" t="n">
-        <v>203.033424637775</v>
+        <v>203.0334246377749</v>
       </c>
       <c r="L31" t="n">
         <v>293.851572483645</v>
@@ -37008,7 +37008,7 @@
         <v>228.5866023424482</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.23954327876096</v>
+        <v>98.23954327876095</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>226.5741255191478</v>
+        <v>135.9361015476918</v>
       </c>
       <c r="K32" t="n">
         <v>461.5403296052202</v>
       </c>
       <c r="L32" t="n">
-        <v>207.7250507975903</v>
+        <v>625.3862653480408</v>
       </c>
       <c r="M32" t="n">
         <v>712.6370075891099</v>
       </c>
       <c r="N32" t="n">
-        <v>625.7300891045953</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O32" t="n">
         <v>624.2112941941275</v>
@@ -37090,7 +37090,7 @@
         <v>293.4935396455124</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>26.66539902745188</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>15.22528518316722</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K33" t="n">
         <v>369.4319418372695</v>
       </c>
       <c r="L33" t="n">
-        <v>187.9311339440025</v>
+        <v>558.7714792474617</v>
       </c>
       <c r="M33" t="n">
-        <v>704.5642250169191</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N33" t="n">
-        <v>739.0776136451746</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O33" t="n">
-        <v>215.1627629887267</v>
+        <v>276.5668856903862</v>
       </c>
       <c r="P33" t="n">
-        <v>294.9868582697904</v>
+        <v>471.6215052819678</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.9591286797538</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.60852938262194</v>
+        <v>74.60852938262188</v>
       </c>
       <c r="K34" t="n">
-        <v>203.033424637775</v>
+        <v>203.0334246377749</v>
       </c>
       <c r="L34" t="n">
-        <v>293.8515724836451</v>
+        <v>293.851572483645</v>
       </c>
       <c r="M34" t="n">
-        <v>316.0335111312656</v>
+        <v>316.0335111312655</v>
       </c>
       <c r="N34" t="n">
         <v>315.8831387782382</v>
       </c>
       <c r="O34" t="n">
-        <v>281.6097819106494</v>
+        <v>281.6097819106493</v>
       </c>
       <c r="P34" t="n">
-        <v>228.5866023424472</v>
+        <v>228.5866023424488</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.239543278761</v>
+        <v>98.23954327876095</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K35" t="n">
-        <v>137.3949170340555</v>
+        <v>461.5403296052202</v>
       </c>
       <c r="L35" t="n">
         <v>207.7250507975903</v>
       </c>
       <c r="M35" t="n">
-        <v>558.4807272008375</v>
+        <v>263.1234740962774</v>
       </c>
       <c r="N35" t="n">
-        <v>558.4807272008375</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O35" t="n">
         <v>243.4111129313821</v>
       </c>
       <c r="P35" t="n">
-        <v>198.1128212671912</v>
+        <v>216.7834998159195</v>
       </c>
       <c r="Q35" t="n">
-        <v>81.1785489856077</v>
+        <v>293.4935396455124</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>26.66539902745188</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>46.10756437955372</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K36" t="n">
         <v>369.4319418372695</v>
       </c>
       <c r="L36" t="n">
-        <v>558.4807272008375</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M36" t="n">
         <v>238.8591612669192</v>
@@ -37397,13 +37397,13 @@
         <v>259.7352393016209</v>
       </c>
       <c r="O36" t="n">
-        <v>215.1627629887267</v>
+        <v>280.4263123656922</v>
       </c>
       <c r="P36" t="n">
         <v>471.6215052819678</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.9591286797538</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,19 +37549,19 @@
         <v>207.7250507975903</v>
       </c>
       <c r="M38" t="n">
-        <v>558.4807272008376</v>
+        <v>336.0228197846512</v>
       </c>
       <c r="N38" t="n">
-        <v>558.4807272008376</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O38" t="n">
-        <v>268.6276766438936</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P38" t="n">
-        <v>172.8962575546799</v>
+        <v>494.6949657261625</v>
       </c>
       <c r="Q38" t="n">
-        <v>81.1785489856077</v>
+        <v>293.4935396455124</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>15.22528518316722</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K39" t="n">
-        <v>104.9667048246909</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L39" t="n">
-        <v>187.9311339440025</v>
+        <v>253.194683320968</v>
       </c>
       <c r="M39" t="n">
-        <v>558.4807272008376</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N39" t="n">
         <v>259.7352393016209</v>
       </c>
       <c r="O39" t="n">
-        <v>351.3610187847599</v>
+        <v>215.1627629887267</v>
       </c>
       <c r="P39" t="n">
         <v>471.6215052819678</v>
@@ -37792,7 +37792,7 @@
         <v>272.0414994981496</v>
       </c>
       <c r="O41" t="n">
-        <v>289.6450595923018</v>
+        <v>289.6450595923033</v>
       </c>
       <c r="P41" t="n">
         <v>494.6949657261625</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>15.22528518316722</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K42" t="n">
-        <v>104.9667048246909</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L42" t="n">
-        <v>320.1502722025633</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="M42" t="n">
         <v>238.8591612669192</v>
       </c>
       <c r="N42" t="n">
-        <v>558.4807272008374</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O42" t="n">
-        <v>558.4807272008374</v>
+        <v>215.1627629887267</v>
       </c>
       <c r="P42" t="n">
-        <v>153.1587366420306</v>
+        <v>166.335461402097</v>
       </c>
       <c r="Q42" t="n">
         <v>262.0364164156029</v>
@@ -38017,7 +38017,7 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K44" t="n">
-        <v>431.3033348236749</v>
+        <v>137.3949170340555</v>
       </c>
       <c r="L44" t="n">
         <v>207.7250507975903</v>
@@ -38026,19 +38026,19 @@
         <v>263.1234740962774</v>
       </c>
       <c r="N44" t="n">
-        <v>558.4807272008375</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O44" t="n">
-        <v>243.4111129313821</v>
+        <v>316.3104586197551</v>
       </c>
       <c r="P44" t="n">
-        <v>172.8962575546799</v>
+        <v>494.6949657261625</v>
       </c>
       <c r="Q44" t="n">
-        <v>81.1785489856077</v>
+        <v>293.4935396455124</v>
       </c>
       <c r="R44" t="n">
-        <v>26.66539902745188</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15.22528518316722</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K45" t="n">
         <v>369.4319418372695</v>
@@ -38105,13 +38105,13 @@
         <v>238.8591612669192</v>
       </c>
       <c r="N45" t="n">
-        <v>259.7352393016209</v>
+        <v>300.143593106412</v>
       </c>
       <c r="O45" t="n">
-        <v>558.4807272008375</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="P45" t="n">
-        <v>319.6581257872296</v>
+        <v>153.1587366420306</v>
       </c>
       <c r="Q45" t="n">
         <v>262.0364164156029</v>
